--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1326848.079830228</v>
+        <v>1323537.300447992</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5610594.250738212</v>
+        <v>5610594.250738217</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>12.725494085322</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H3" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="T3" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="S5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="S6" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="T6" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="U6" t="n">
-        <v>11.20861519035161</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
+        <v>9.031127956876844</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.177487233474765</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.20861519035161</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12.725494085322</v>
       </c>
       <c r="I9" t="n">
         <v>12.725494085322</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.4346638019352</v>
       </c>
       <c r="H11" t="n">
-        <v>231.7103718738894</v>
+        <v>304.4924314023788</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>128.4689925776288</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.92475818801689</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>118.0050361210475</v>
       </c>
       <c r="H12" t="n">
-        <v>79.16482667211395</v>
+        <v>79.16482667211385</v>
       </c>
       <c r="I12" t="n">
         <v>19.48398899959927</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5568178485505</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.2278339477191</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>188.3079243067438</v>
+        <v>49.47852053014621</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V13" t="n">
-        <v>78.74552230921977</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>251.2207579563373</v>
+        <v>407.4346638019352</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.067485137352</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>240.3160619414929</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.5568178485505</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.2278339477191</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.3079243067438</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5453428118091</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.0515367949255</v>
+        <v>36.88597762100701</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>245.9241466184041</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.4924314023788</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>128.4689925776288</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>196.6173315142333</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>70.5629501253183</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.2278339477191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>188.3079243067438</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>46.37310813929113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>126.9146368909757</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>224.0533428872891</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>75.40606140507479</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.067485137352</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -2250,7 +2250,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.8553945018835</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.46267147461226</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>116.8942415989842</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U22" t="n">
-        <v>98.55037986129295</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>350.5251642100858</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2371,7 +2371,7 @@
         <v>128.4689925776288</v>
       </c>
       <c r="T23" t="n">
-        <v>214.2770745779208</v>
+        <v>175.5584923059062</v>
       </c>
       <c r="U23" t="n">
         <v>253.067485137352</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>69.25160234864943</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>230.3020807312415</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5453428118091</v>
+        <v>166.7651131834238</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>370.5270840897703</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,7 +2572,7 @@
         <v>407.4346638019352</v>
       </c>
       <c r="H26" t="n">
-        <v>304.4924314023788</v>
+        <v>164.9638054190204</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>128.4689925776288</v>
       </c>
       <c r="T26" t="n">
         <v>214.2770745779208</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.5568178485505</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.2278339477191</v>
+        <v>49.47852053014628</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.46267147461226</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>188.3079243067438</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U28" t="n">
-        <v>49.57207031548703</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2809,10 +2809,10 @@
         <v>407.4346638019352</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>50.76733345451429</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>75.40606140507479</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.36531285929858</v>
+        <v>128.4689925776288</v>
       </c>
       <c r="T29" t="n">
-        <v>214.2770745779208</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.067485137352</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>161.4725518236097</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.15901450739372</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.3079243067438</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -3046,7 +3046,7 @@
         <v>407.4346638019352</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.4924314023788</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>128.4689925776288</v>
       </c>
       <c r="T32" t="n">
-        <v>126.1733948595899</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.067485137352</v>
+        <v>74.7484485945623</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.027368709825</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.2278339477191</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>90.46267147461226</v>
       </c>
       <c r="S34" t="n">
-        <v>188.3079243067438</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5453428118091</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,10 +3252,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>223.3283843151598</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>23.86395637041067</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>75.40606140507479</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>128.4689925776288</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>282.4894029095628</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>82.0515367949255</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.3079243067438</v>
       </c>
       <c r="T37" t="n">
         <v>230.3020807312415</v>
@@ -3486,13 +3486,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.157610902196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>175.4603838488079</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3511,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>407.4346638019352</v>
       </c>
       <c r="H38" t="n">
-        <v>148.6415004276679</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>75.40606140507479</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.067485137352</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>52.98901629306072</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>9.95380911646523</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>94.57204211506017</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3754,10 +3754,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>310.7798247110897</v>
+        <v>407.4346638019352</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.4924314023788</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>128.4689925776288</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.067485137352</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.5568178485505</v>
       </c>
       <c r="I43" t="n">
-        <v>110.2278339477191</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>90.46267147461226</v>
       </c>
       <c r="S43" t="n">
-        <v>188.3079243067438</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>147.7913643911172</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>20.02581701156262</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.4346638019352</v>
+        <v>324.9892600061713</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.4924314023788</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.067485137352</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>209.1444810739588</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.8581294207281</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.5568178485505</v>
       </c>
       <c r="I46" t="n">
-        <v>110.2278339477191</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.46267147461226</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>188.3079243067438</v>
       </c>
       <c r="T46" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5453428118091</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>20.47028950226829</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="E2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="F2" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="G2" t="n">
         <v>13.87207395644394</v>
@@ -4330,25 +4330,25 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J2" t="n">
-        <v>13.10725890788166</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K2" t="n">
-        <v>13.10725890788166</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L2" t="n">
-        <v>13.10725890788166</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="M2" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="N2" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O2" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P2" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q2" t="n">
         <v>50.90197634128799</v>
@@ -4357,25 +4357,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="T2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="H3" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="C3" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="I3" t="n">
         <v>1.01803952682576</v>
@@ -4415,16 +4415,16 @@
         <v>26.21451781576332</v>
       </c>
       <c r="L3" t="n">
-        <v>26.21451781576332</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="M3" t="n">
-        <v>38.30373719681921</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="N3" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O3" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P3" t="n">
         <v>50.90197634128799</v>
@@ -4436,25 +4436,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S3" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="T3" t="n">
         <v>39.5801428156803</v>
       </c>
       <c r="U3" t="n">
-        <v>26.72610838606212</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="V3" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="W3" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="X3" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="C4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="D4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="E4" t="n">
-        <v>13.87207395644394</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="F4" t="n">
         <v>13.87207395644394</v>
@@ -4482,31 +4482,31 @@
         <v>13.87207395644394</v>
       </c>
       <c r="H4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="I4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="J4" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K4" t="n">
-        <v>9.685062537830703</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="L4" t="n">
-        <v>22.28330168229948</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M4" t="n">
-        <v>34.88154082676826</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N4" t="n">
-        <v>34.88154082676826</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O4" t="n">
-        <v>47.47977997123704</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P4" t="n">
-        <v>47.47977997123704</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q4" t="n">
         <v>50.90197634128799</v>
@@ -4515,25 +4515,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S4" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="T4" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U4" t="n">
-        <v>13.87207395644394</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="W4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="X4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="F5" t="n">
         <v>25.19390748205163</v>
       </c>
-      <c r="C5" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.33987305243345</v>
-      </c>
       <c r="G5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="I5" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="N5" t="n">
-        <v>13.10725890788166</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O5" t="n">
         <v>25.70549805235044</v>
@@ -4594,25 +4594,25 @@
         <v>38.04794191166981</v>
       </c>
       <c r="S5" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T5" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U5" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="V5" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W5" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X5" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D6" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E6" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F6" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="G6" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="H6" t="n">
         <v>1.01803952682576</v>
@@ -4652,46 +4652,46 @@
         <v>13.61627867129454</v>
       </c>
       <c r="L6" t="n">
-        <v>26.21451781576332</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M6" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="O6" t="n">
+        <v>25.70549805235044</v>
+      </c>
+      <c r="P6" t="n">
         <v>38.30373719681921</v>
-      </c>
-      <c r="N6" t="n">
-        <v>50.90197634128799</v>
-      </c>
-      <c r="O6" t="n">
-        <v>50.90197634128799</v>
-      </c>
-      <c r="P6" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="Q6" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="S6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="T6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="U6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="W6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="X6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="Y6" t="n">
         <v>38.04794191166981</v>
-      </c>
-      <c r="S6" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="T6" t="n">
-        <v>12.33987305243345</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.01803952682576</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.87207395644394</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="C7" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="D7" t="n">
-        <v>13.87207395644394</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="E7" t="n">
         <v>13.87207395644394</v>
@@ -4728,16 +4728,16 @@
         <v>1.01803952682576</v>
       </c>
       <c r="K7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="M7" t="n">
-        <v>13.61627867129454</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="N7" t="n">
-        <v>25.70549805235044</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O7" t="n">
         <v>38.30373719681921</v>
@@ -4749,28 +4749,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="S7" t="n">
-        <v>25.19390748205163</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="T7" t="n">
-        <v>25.19390748205163</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U7" t="n">
-        <v>25.19390748205163</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V7" t="n">
-        <v>25.19390748205163</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W7" t="n">
-        <v>13.87207395644394</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X7" t="n">
-        <v>13.87207395644394</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.87207395644394</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="C8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="D8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="E8" t="n">
-        <v>26.72610838606212</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="F8" t="n">
+        <v>22.99442542803671</v>
+      </c>
+      <c r="G8" t="n">
         <v>13.87207395644394</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.01803952682576</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="I8" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J8" t="n">
+        <v>1.01803952682576</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.01803952682576</v>
+      </c>
+      <c r="L8" t="n">
         <v>13.61627867129454</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>26.21451781576332</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>38.81275696023209</v>
-      </c>
-      <c r="M8" t="n">
-        <v>50.90197634128799</v>
-      </c>
-      <c r="N8" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="O8" t="n">
         <v>50.90197634128799</v>
@@ -4831,25 +4831,25 @@
         <v>38.04794191166981</v>
       </c>
       <c r="S8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="T8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="U8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="V8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="W8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="X8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.04794191166981</v>
+        <v>35.84845985765489</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C9" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D9" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E9" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F9" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="G9" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="H9" t="n">
         <v>13.87207395644394</v>
@@ -4883,52 +4883,52 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="K9" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="M9" t="n">
-        <v>13.61627867129454</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="N9" t="n">
         <v>25.70549805235044</v>
       </c>
       <c r="O9" t="n">
+        <v>25.70549805235044</v>
+      </c>
+      <c r="P9" t="n">
         <v>38.30373719681921</v>
-      </c>
-      <c r="P9" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="Q9" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="T9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="V9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="W9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="X9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="Y9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="G10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="I10" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="J10" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K10" t="n">
-        <v>1.01803952682576</v>
+        <v>9.685062537830703</v>
       </c>
       <c r="L10" t="n">
-        <v>13.61627867129454</v>
+        <v>9.685062537830703</v>
       </c>
       <c r="M10" t="n">
-        <v>26.21451781576332</v>
+        <v>22.28330168229948</v>
       </c>
       <c r="N10" t="n">
-        <v>38.81275696023209</v>
+        <v>34.88154082676826</v>
       </c>
       <c r="O10" t="n">
         <v>47.47977997123704</v>
@@ -4986,28 +4986,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R10" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S10" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T10" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U10" t="n">
-        <v>50.90197634128799</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="V10" t="n">
-        <v>50.90197634128799</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="W10" t="n">
-        <v>38.04794191166981</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="X10" t="n">
         <v>26.72610838606212</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.87207395644394</v>
+        <v>26.72610838606212</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1484.601716238084</v>
+        <v>1567.085588658088</v>
       </c>
       <c r="C11" t="n">
-        <v>1484.601716238084</v>
+        <v>1567.085588658088</v>
       </c>
       <c r="D11" t="n">
-        <v>1099.160587454752</v>
+        <v>1181.644459874756</v>
       </c>
       <c r="E11" t="n">
-        <v>696.5770625712962</v>
+        <v>1181.644459874756</v>
       </c>
       <c r="F11" t="n">
-        <v>279.682624101274</v>
+        <v>764.7500214047333</v>
       </c>
       <c r="G11" t="n">
-        <v>279.682624101274</v>
+        <v>353.199855948233</v>
       </c>
       <c r="H11" t="n">
-        <v>45.6317434205776</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="I11" t="n">
-        <v>45.6317434205776</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J11" t="n">
-        <v>63.27162443242263</v>
+        <v>324.4244369041733</v>
       </c>
       <c r="K11" t="n">
-        <v>122.6892702616353</v>
+        <v>383.842082733386</v>
       </c>
       <c r="L11" t="n">
-        <v>687.3820950912831</v>
+        <v>481.5410716598321</v>
       </c>
       <c r="M11" t="n">
-        <v>1252.074919920931</v>
+        <v>1046.23389648948</v>
       </c>
       <c r="N11" t="n">
-        <v>1386.460092919871</v>
+        <v>1180.61906948842</v>
       </c>
       <c r="O11" t="n">
-        <v>1951.152917749519</v>
+        <v>1299.328421404895</v>
       </c>
       <c r="P11" t="n">
-        <v>2191.9205178097</v>
+        <v>1864.021246234543</v>
       </c>
       <c r="Q11" t="n">
         <v>2219.542973202319</v>
       </c>
       <c r="R11" t="n">
-        <v>2281.58717102888</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="S11" t="n">
-        <v>2281.58717102888</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.58717102888</v>
+        <v>1935.37902238691</v>
       </c>
       <c r="U11" t="n">
-        <v>2281.58717102888</v>
+        <v>1909.19239795457</v>
       </c>
       <c r="V11" t="n">
-        <v>2281.58717102888</v>
+        <v>1567.085588658088</v>
       </c>
       <c r="W11" t="n">
-        <v>2281.58717102888</v>
+        <v>1567.085588658088</v>
       </c>
       <c r="X11" t="n">
-        <v>2281.58717102888</v>
+        <v>1567.085588658088</v>
       </c>
       <c r="Y11" t="n">
-        <v>1885.096461949481</v>
+        <v>1567.085588658088</v>
       </c>
     </row>
     <row r="12">
@@ -5096,61 +5096,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>806.0955127831277</v>
+        <v>806.0955127831276</v>
       </c>
       <c r="C12" t="n">
-        <v>655.4412823432199</v>
+        <v>655.4412823432198</v>
       </c>
       <c r="D12" t="n">
-        <v>525.3523149647002</v>
+        <v>525.3523149647001</v>
       </c>
       <c r="E12" t="n">
-        <v>388.9058240755879</v>
+        <v>388.9058240755878</v>
       </c>
       <c r="F12" t="n">
-        <v>264.4740179587197</v>
+        <v>264.4740179587196</v>
       </c>
       <c r="G12" t="n">
-        <v>145.2770117758435</v>
+        <v>145.2770117758434</v>
       </c>
       <c r="H12" t="n">
-        <v>65.3125403898698</v>
+        <v>65.31254038986978</v>
       </c>
       <c r="I12" t="n">
-        <v>45.6317434205776</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J12" t="n">
-        <v>45.6317434205776</v>
+        <v>238.6413301636318</v>
       </c>
       <c r="K12" t="n">
-        <v>93.48338199632354</v>
+        <v>694.9330807816041</v>
       </c>
       <c r="L12" t="n">
-        <v>187.9354670712443</v>
+        <v>789.3851658565248</v>
       </c>
       <c r="M12" t="n">
-        <v>752.628291900892</v>
+        <v>912.1882584338891</v>
       </c>
       <c r="N12" t="n">
-        <v>1317.32111673054</v>
+        <v>1047.607202655005</v>
       </c>
       <c r="O12" t="n">
-        <v>1882.013941560188</v>
+        <v>1345.520945511666</v>
       </c>
       <c r="P12" t="n">
-        <v>2234.657133520559</v>
+        <v>1910.213770341313</v>
       </c>
       <c r="Q12" t="n">
-        <v>2252.524294793791</v>
+        <v>2252.52429479379</v>
       </c>
       <c r="R12" t="n">
-        <v>2281.58717102888</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="S12" t="n">
-        <v>2162.682843670736</v>
+        <v>2162.682843670735</v>
       </c>
       <c r="T12" t="n">
-        <v>1989.176768684966</v>
+        <v>1989.176768684965</v>
       </c>
       <c r="U12" t="n">
         <v>1779.170389294216</v>
@@ -5165,7 +5165,7 @@
         <v>1137.206064148582</v>
       </c>
       <c r="Y12" t="n">
-        <v>957.8918472240891</v>
+        <v>957.8918472240889</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>942.0688421308905</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="C13" t="n">
-        <v>942.0688421308905</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="D13" t="n">
-        <v>786.4357290334053</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="E13" t="n">
-        <v>630.8769168926078</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="F13" t="n">
-        <v>473.5509821055808</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="G13" t="n">
-        <v>306.0202805885267</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9729898324151</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="I13" t="n">
-        <v>45.6317434205776</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J13" t="n">
-        <v>65.98130816769978</v>
+        <v>65.98130816769975</v>
       </c>
       <c r="K13" t="n">
         <v>230.1843405163548</v>
@@ -5208,7 +5208,7 @@
         <v>499.7146508688647</v>
       </c>
       <c r="M13" t="n">
-        <v>797.1385666820216</v>
+        <v>797.1385666820215</v>
       </c>
       <c r="N13" t="n">
         <v>1088.818059595958</v>
@@ -5226,25 +5226,25 @@
         <v>1620.13987818329</v>
       </c>
       <c r="S13" t="n">
-        <v>1429.929853631023</v>
+        <v>1570.161574617485</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.929853631023</v>
+        <v>1337.533210242494</v>
       </c>
       <c r="U13" t="n">
-        <v>1429.929853631023</v>
+        <v>1052.133874068949</v>
       </c>
       <c r="V13" t="n">
-        <v>1350.388922005548</v>
+        <v>786.1545288897735</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.388922005548</v>
+        <v>502.8241268209512</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.388922005548</v>
+        <v>268.7438046039342</v>
       </c>
       <c r="Y13" t="n">
-        <v>1127.276860822192</v>
+        <v>45.63174342057758</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1095.14911117114</v>
+        <v>457.1819088770778</v>
       </c>
       <c r="C14" t="n">
-        <v>701.9736096740708</v>
+        <v>457.1819088770778</v>
       </c>
       <c r="D14" t="n">
-        <v>701.9736096740708</v>
+        <v>457.1819088770778</v>
       </c>
       <c r="E14" t="n">
-        <v>299.3900847906153</v>
+        <v>457.1819088770778</v>
       </c>
       <c r="F14" t="n">
-        <v>299.3900847906153</v>
+        <v>457.1819088770778</v>
       </c>
       <c r="G14" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="H14" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="I14" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J14" t="n">
-        <v>241.7168362726788</v>
+        <v>324.4244369041733</v>
       </c>
       <c r="K14" t="n">
-        <v>301.1344821018915</v>
+        <v>884.4522579082927</v>
       </c>
       <c r="L14" t="n">
-        <v>865.8273069315392</v>
+        <v>982.1512468347389</v>
       </c>
       <c r="M14" t="n">
-        <v>1430.520131761187</v>
+        <v>1111.44533093391</v>
       </c>
       <c r="N14" t="n">
-        <v>1995.212956590834</v>
+        <v>1245.83050393285</v>
       </c>
       <c r="O14" t="n">
-        <v>2113.441144928032</v>
+        <v>1689.271890806612</v>
       </c>
       <c r="P14" t="n">
-        <v>2191.9205178097</v>
+        <v>2253.96471563626</v>
       </c>
       <c r="Q14" t="n">
-        <v>2219.542973202319</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="R14" t="n">
         <v>2281.587171028879</v>
@@ -5308,22 +5308,22 @@
         <v>2281.587171028879</v>
       </c>
       <c r="T14" t="n">
-        <v>2281.587171028879</v>
+        <v>2065.145681556231</v>
       </c>
       <c r="U14" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="V14" t="n">
-        <v>2281.587171028879</v>
+        <v>1467.415149898788</v>
       </c>
       <c r="W14" t="n">
-        <v>2281.587171028879</v>
+        <v>1096.416114867076</v>
       </c>
       <c r="X14" t="n">
-        <v>1892.134565961936</v>
+        <v>853.6726179564766</v>
       </c>
       <c r="Y14" t="n">
-        <v>1495.643856882537</v>
+        <v>457.1819088770778</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>145.2770117758434</v>
       </c>
       <c r="H15" t="n">
-        <v>65.31254038986981</v>
+        <v>65.31254038986978</v>
       </c>
       <c r="I15" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J15" t="n">
-        <v>45.63174342057759</v>
+        <v>238.6413301636318</v>
       </c>
       <c r="K15" t="n">
-        <v>93.48338199632353</v>
+        <v>694.9330807816041</v>
       </c>
       <c r="L15" t="n">
-        <v>494.3735738081155</v>
+        <v>1259.625905611252</v>
       </c>
       <c r="M15" t="n">
-        <v>1059.066398637763</v>
+        <v>1382.428998188616</v>
       </c>
       <c r="N15" t="n">
-        <v>1623.759223467411</v>
+        <v>1517.847942409732</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.452048297058</v>
+        <v>1699.027184926</v>
       </c>
       <c r="P15" t="n">
-        <v>2263.720009755648</v>
+        <v>2263.720009755647</v>
       </c>
       <c r="Q15" t="n">
         <v>2281.587171028879</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.63174342057759</v>
+        <v>1112.273960064901</v>
       </c>
       <c r="C16" t="n">
-        <v>45.63174342057759</v>
+        <v>942.0688421308905</v>
       </c>
       <c r="D16" t="n">
-        <v>45.63174342057759</v>
+        <v>786.4357290334053</v>
       </c>
       <c r="E16" t="n">
-        <v>45.63174342057759</v>
+        <v>630.8769168926078</v>
       </c>
       <c r="F16" t="n">
-        <v>45.63174342057759</v>
+        <v>473.5509821055808</v>
       </c>
       <c r="G16" t="n">
-        <v>45.63174342057759</v>
+        <v>306.0202805885267</v>
       </c>
       <c r="H16" t="n">
-        <v>45.63174342057759</v>
+        <v>156.9729898324151</v>
       </c>
       <c r="I16" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J16" t="n">
         <v>65.98130816769975</v>
@@ -5463,25 +5463,25 @@
         <v>1620.13987818329</v>
       </c>
       <c r="S16" t="n">
-        <v>1429.929853631023</v>
+        <v>1620.13987818329</v>
       </c>
       <c r="T16" t="n">
-        <v>1197.301489256032</v>
+        <v>1620.13987818329</v>
       </c>
       <c r="U16" t="n">
-        <v>911.9021530824871</v>
+        <v>1334.740542009745</v>
       </c>
       <c r="V16" t="n">
-        <v>645.9228079033113</v>
+        <v>1334.740542009745</v>
       </c>
       <c r="W16" t="n">
-        <v>362.5924058344889</v>
+        <v>1334.740542009745</v>
       </c>
       <c r="X16" t="n">
-        <v>128.512083617472</v>
+        <v>1334.740542009745</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.63174342057759</v>
+        <v>1297.481978756203</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1892.134565961936</v>
+        <v>1163.269795915325</v>
       </c>
       <c r="C17" t="n">
-        <v>1498.959064464867</v>
+        <v>770.0942944182552</v>
       </c>
       <c r="D17" t="n">
-        <v>1113.517935681534</v>
+        <v>770.0942944182552</v>
       </c>
       <c r="E17" t="n">
-        <v>710.9344107980787</v>
+        <v>770.0942944182552</v>
       </c>
       <c r="F17" t="n">
-        <v>294.0399723280565</v>
+        <v>353.199855948233</v>
       </c>
       <c r="G17" t="n">
-        <v>45.63174342057759</v>
+        <v>353.199855948233</v>
       </c>
       <c r="H17" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="I17" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J17" t="n">
-        <v>63.27162443242261</v>
+        <v>324.4244369041733</v>
       </c>
       <c r="K17" t="n">
-        <v>122.6892702616353</v>
+        <v>884.4522579082927</v>
       </c>
       <c r="L17" t="n">
-        <v>687.382095091283</v>
+        <v>982.1512468347389</v>
       </c>
       <c r="M17" t="n">
-        <v>1252.074919920931</v>
+        <v>1111.44533093391</v>
       </c>
       <c r="N17" t="n">
-        <v>1816.767744750578</v>
+        <v>1245.83050393285</v>
       </c>
       <c r="O17" t="n">
-        <v>1934.995933087776</v>
+        <v>1364.058692270047</v>
       </c>
       <c r="P17" t="n">
-        <v>2191.9205178097</v>
+        <v>1926.065444061103</v>
       </c>
       <c r="Q17" t="n">
-        <v>2219.542973202319</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="R17" t="n">
         <v>2281.587171028879</v>
       </c>
       <c r="S17" t="n">
-        <v>2281.587171028879</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.587171028879</v>
+        <v>1953.217146693665</v>
       </c>
       <c r="U17" t="n">
-        <v>2281.587171028879</v>
+        <v>1953.217146693665</v>
       </c>
       <c r="V17" t="n">
-        <v>2281.587171028879</v>
+        <v>1953.217146693665</v>
       </c>
       <c r="W17" t="n">
-        <v>2281.587171028879</v>
+        <v>1953.217146693665</v>
       </c>
       <c r="X17" t="n">
-        <v>1892.134565961936</v>
+        <v>1563.764541626722</v>
       </c>
       <c r="Y17" t="n">
-        <v>1892.134565961936</v>
+        <v>1563.764541626722</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>65.31254038986978</v>
       </c>
       <c r="I18" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J18" t="n">
-        <v>45.63174342057759</v>
+        <v>238.6413301636318</v>
       </c>
       <c r="K18" t="n">
-        <v>501.92349403855</v>
+        <v>694.9330807816041</v>
       </c>
       <c r="L18" t="n">
-        <v>1066.616318868198</v>
+        <v>789.3851658565248</v>
       </c>
       <c r="M18" t="n">
-        <v>1631.309143697845</v>
+        <v>912.1882584338891</v>
       </c>
       <c r="N18" t="n">
-        <v>1766.728087918962</v>
+        <v>1047.607202655005</v>
       </c>
       <c r="O18" t="n">
-        <v>1876.167098763937</v>
+        <v>1345.520945511666</v>
       </c>
       <c r="P18" t="n">
-        <v>1951.435060222526</v>
+        <v>1910.213770341314</v>
       </c>
       <c r="Q18" t="n">
-        <v>2281.587171028879</v>
+        <v>2252.52429479379</v>
       </c>
       <c r="R18" t="n">
         <v>2281.587171028879</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>755.6304285771894</v>
+        <v>314.2989246194422</v>
       </c>
       <c r="C19" t="n">
-        <v>585.4253106431786</v>
+        <v>314.2989246194422</v>
       </c>
       <c r="D19" t="n">
-        <v>429.7921975456933</v>
+        <v>314.2989246194422</v>
       </c>
       <c r="E19" t="n">
-        <v>274.2333854048958</v>
+        <v>314.2989246194422</v>
       </c>
       <c r="F19" t="n">
-        <v>116.9074506178688</v>
+        <v>156.9729898324151</v>
       </c>
       <c r="G19" t="n">
-        <v>45.63174342057759</v>
+        <v>156.9729898324151</v>
       </c>
       <c r="H19" t="n">
-        <v>45.63174342057759</v>
+        <v>156.9729898324151</v>
       </c>
       <c r="I19" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J19" t="n">
         <v>65.98130816769975</v>
@@ -5703,22 +5703,22 @@
         <v>1429.929853631023</v>
       </c>
       <c r="T19" t="n">
-        <v>1429.929853631023</v>
+        <v>1383.088330258002</v>
       </c>
       <c r="U19" t="n">
-        <v>1429.929853631023</v>
+        <v>1097.688994084457</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.950508451847</v>
+        <v>831.7096489052815</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.950508451847</v>
+        <v>548.3792468364591</v>
       </c>
       <c r="X19" t="n">
-        <v>1163.950508451847</v>
+        <v>314.2989246194422</v>
       </c>
       <c r="Y19" t="n">
-        <v>940.8384472684907</v>
+        <v>314.2989246194422</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1484.601716238084</v>
+        <v>524.3830070970379</v>
       </c>
       <c r="C20" t="n">
-        <v>1091.426214741014</v>
+        <v>524.3830070970379</v>
       </c>
       <c r="D20" t="n">
-        <v>1091.426214741014</v>
+        <v>524.3830070970379</v>
       </c>
       <c r="E20" t="n">
-        <v>688.8426898575585</v>
+        <v>121.7994822135824</v>
       </c>
       <c r="F20" t="n">
-        <v>271.9482513875363</v>
+        <v>121.7994822135824</v>
       </c>
       <c r="G20" t="n">
-        <v>45.63174342057759</v>
+        <v>121.7994822135824</v>
       </c>
       <c r="H20" t="n">
-        <v>45.63174342057759</v>
+        <v>121.7994822135824</v>
       </c>
       <c r="I20" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J20" t="n">
-        <v>63.27162443242261</v>
+        <v>63.2716244324226</v>
       </c>
       <c r="K20" t="n">
-        <v>363.1786799284519</v>
+        <v>122.6892702616353</v>
       </c>
       <c r="L20" t="n">
-        <v>927.8715047580995</v>
+        <v>687.3820950912828</v>
       </c>
       <c r="M20" t="n">
-        <v>1492.564329587747</v>
+        <v>816.6761791904536</v>
       </c>
       <c r="N20" t="n">
-        <v>2057.257154417395</v>
+        <v>1381.369004020101</v>
       </c>
       <c r="O20" t="n">
-        <v>2175.485342754592</v>
+        <v>1499.597192357299</v>
       </c>
       <c r="P20" t="n">
-        <v>2253.96471563626</v>
+        <v>2064.290017186946</v>
       </c>
       <c r="Q20" t="n">
         <v>2281.587171028879</v>
@@ -5782,22 +5782,22 @@
         <v>2281.587171028879</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.587171028879</v>
+        <v>2065.145681556231</v>
       </c>
       <c r="U20" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="V20" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="W20" t="n">
-        <v>2281.587171028879</v>
+        <v>1438.522924163557</v>
       </c>
       <c r="X20" t="n">
-        <v>2281.587171028879</v>
+        <v>1049.070319096614</v>
       </c>
       <c r="Y20" t="n">
-        <v>1885.09646194948</v>
+        <v>652.5796100172154</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>65.31254038986978</v>
       </c>
       <c r="I21" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J21" t="n">
-        <v>45.63174342057759</v>
+        <v>238.6413301636318</v>
       </c>
       <c r="K21" t="n">
-        <v>93.48338199632353</v>
+        <v>694.9330807816041</v>
       </c>
       <c r="L21" t="n">
-        <v>658.1762068259711</v>
+        <v>789.3851658565248</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.869031655619</v>
+        <v>912.1882584338891</v>
       </c>
       <c r="N21" t="n">
-        <v>1787.561856485266</v>
+        <v>1047.607202655005</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.452048297058</v>
+        <v>1345.520945511666</v>
       </c>
       <c r="P21" t="n">
-        <v>2263.720009755648</v>
+        <v>1910.213770341314</v>
       </c>
       <c r="Q21" t="n">
-        <v>2281.587171028879</v>
+        <v>2252.52429479379</v>
       </c>
       <c r="R21" t="n">
         <v>2281.587171028879</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1112.273960064901</v>
+        <v>954.9480252778742</v>
       </c>
       <c r="C22" t="n">
-        <v>942.0688421308905</v>
+        <v>784.7429073438634</v>
       </c>
       <c r="D22" t="n">
-        <v>786.4357290334053</v>
+        <v>629.1097942463782</v>
       </c>
       <c r="E22" t="n">
-        <v>630.8769168926078</v>
+        <v>473.5509821055808</v>
       </c>
       <c r="F22" t="n">
         <v>473.5509821055808</v>
@@ -5907,7 +5907,7 @@
         <v>156.9729898324151</v>
       </c>
       <c r="I22" t="n">
-        <v>45.63174342057759</v>
+        <v>45.63174342057758</v>
       </c>
       <c r="J22" t="n">
         <v>65.98130816769975</v>
@@ -5934,28 +5934,28 @@
         <v>1620.13987818329</v>
       </c>
       <c r="R22" t="n">
-        <v>1620.13987818329</v>
+        <v>1528.763442350348</v>
       </c>
       <c r="S22" t="n">
-        <v>1620.13987818329</v>
+        <v>1410.688450836222</v>
       </c>
       <c r="T22" t="n">
-        <v>1620.13987818329</v>
+        <v>1178.060086461231</v>
       </c>
       <c r="U22" t="n">
-        <v>1520.594039939559</v>
+        <v>1178.060086461231</v>
       </c>
       <c r="V22" t="n">
-        <v>1520.594039939559</v>
+        <v>1178.060086461231</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.594039939559</v>
+        <v>1178.060086461231</v>
       </c>
       <c r="X22" t="n">
-        <v>1520.594039939559</v>
+        <v>1178.060086461231</v>
       </c>
       <c r="Y22" t="n">
-        <v>1297.481978756203</v>
+        <v>954.9480252778742</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2061.798566868896</v>
+        <v>2100.908245931535</v>
       </c>
       <c r="C23" t="n">
         <v>1707.732744434466</v>
@@ -5977,64 +5977,64 @@
         <v>919.7080907676777</v>
       </c>
       <c r="F23" t="n">
-        <v>502.8136522976555</v>
+        <v>502.8136522976554</v>
       </c>
       <c r="G23" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="H23" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="I23" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="J23" t="n">
-        <v>370.0561803247509</v>
+        <v>108.9033678530002</v>
       </c>
       <c r="K23" t="n">
-        <v>930.0840013288704</v>
+        <v>668.9311888571197</v>
       </c>
       <c r="L23" t="n">
-        <v>1230.460582916027</v>
+        <v>1411.666157535281</v>
       </c>
       <c r="M23" t="n">
-        <v>2053.983368141528</v>
+        <v>2235.188942760783</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.807131202337</v>
+        <v>3045.012705821591</v>
       </c>
       <c r="O23" t="n">
-        <v>3570.143119481718</v>
+        <v>3751.348694100972</v>
       </c>
       <c r="P23" t="n">
-        <v>4145.608417263424</v>
+        <v>4326.813991882678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4501.1301442312</v>
+        <v>4563.174342057759</v>
       </c>
       <c r="R23" t="n">
-        <v>4563.17434205776</v>
+        <v>4563.174342057759</v>
       </c>
       <c r="S23" t="n">
-        <v>4433.407682888437</v>
+        <v>4433.407682888436</v>
       </c>
       <c r="T23" t="n">
-        <v>4216.96619341579</v>
+        <v>4256.07587247843</v>
       </c>
       <c r="U23" t="n">
-        <v>3961.342471054829</v>
+        <v>4000.452150117468</v>
       </c>
       <c r="V23" t="n">
-        <v>3619.235661758347</v>
+        <v>3658.345340820987</v>
       </c>
       <c r="W23" t="n">
-        <v>3248.236626726635</v>
+        <v>3287.346305789274</v>
       </c>
       <c r="X23" t="n">
-        <v>2858.784021659691</v>
+        <v>2897.893700722331</v>
       </c>
       <c r="Y23" t="n">
-        <v>2462.293312580292</v>
+        <v>2501.402991642932</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>851.7272562037053</v>
+        <v>851.7272562037052</v>
       </c>
       <c r="C24" t="n">
-        <v>701.0730257637975</v>
+        <v>701.0730257637974</v>
       </c>
       <c r="D24" t="n">
-        <v>570.9840583852779</v>
+        <v>570.9840583852778</v>
       </c>
       <c r="E24" t="n">
         <v>434.5375674961655</v>
@@ -6065,31 +6065,31 @@
         <v>110.9442838104474</v>
       </c>
       <c r="I24" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="J24" t="n">
-        <v>91.2634868411552</v>
+        <v>284.2730735842094</v>
       </c>
       <c r="K24" t="n">
-        <v>139.1151254169012</v>
+        <v>740.5648242021817</v>
       </c>
       <c r="L24" t="n">
-        <v>233.5672104918219</v>
+        <v>835.0169092771025</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.605203524686</v>
+        <v>957.8200018544668</v>
       </c>
       <c r="N24" t="n">
-        <v>1951.320510681987</v>
+        <v>1093.238946075583</v>
       </c>
       <c r="O24" t="n">
-        <v>2234.083791717636</v>
+        <v>1388.743652415783</v>
       </c>
       <c r="P24" t="n">
-        <v>2309.351753176225</v>
+        <v>1955.845513761891</v>
       </c>
       <c r="Q24" t="n">
-        <v>2327.218914449457</v>
+        <v>2298.156038214368</v>
       </c>
       <c r="R24" t="n">
         <v>2327.218914449457</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>316.8477134221247</v>
+        <v>248.5894216281822</v>
       </c>
       <c r="C25" t="n">
-        <v>246.8965999386405</v>
+        <v>248.5894216281822</v>
       </c>
       <c r="D25" t="n">
-        <v>91.2634868411552</v>
+        <v>248.5894216281822</v>
       </c>
       <c r="E25" t="n">
-        <v>91.2634868411552</v>
+        <v>248.5894216281822</v>
       </c>
       <c r="F25" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="G25" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="H25" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="I25" t="n">
-        <v>91.2634868411552</v>
+        <v>91.26348684115517</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6130515882774</v>
+        <v>111.6130515882773</v>
       </c>
       <c r="K25" t="n">
         <v>275.8160839369324</v>
@@ -6180,19 +6180,19 @@
         <v>1151.556796843667</v>
       </c>
       <c r="U25" t="n">
-        <v>866.1574606701229</v>
+        <v>983.1071875674817</v>
       </c>
       <c r="V25" t="n">
-        <v>600.1781154909471</v>
+        <v>717.1278423883059</v>
       </c>
       <c r="W25" t="n">
-        <v>316.8477134221247</v>
+        <v>433.7974403194835</v>
       </c>
       <c r="X25" t="n">
-        <v>316.8477134221247</v>
+        <v>433.7974403194835</v>
       </c>
       <c r="Y25" t="n">
-        <v>316.8477134221247</v>
+        <v>433.7974403194835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2396.286972057891</v>
+        <v>2266.520312888568</v>
       </c>
       <c r="C26" t="n">
-        <v>2003.111470560822</v>
+        <v>1873.344811391499</v>
       </c>
       <c r="D26" t="n">
-        <v>1628.841688651963</v>
+        <v>1487.903682608166</v>
       </c>
       <c r="E26" t="n">
-        <v>1226.258163768508</v>
+        <v>1085.320157724711</v>
       </c>
       <c r="F26" t="n">
-        <v>809.3637252984852</v>
+        <v>668.4257192546887</v>
       </c>
       <c r="G26" t="n">
-        <v>397.8135598419848</v>
+        <v>256.8755537981884</v>
       </c>
       <c r="H26" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="I26" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J26" t="n">
-        <v>107.8853283261745</v>
+        <v>107.8853283261744</v>
       </c>
       <c r="K26" t="n">
-        <v>436.8236378965775</v>
+        <v>667.9131493302939</v>
       </c>
       <c r="L26" t="n">
-        <v>1179.558606574739</v>
+        <v>1410.648118008456</v>
       </c>
       <c r="M26" t="n">
-        <v>2003.08139180024</v>
+        <v>2065.125589626799</v>
       </c>
       <c r="N26" t="n">
-        <v>2812.905154861049</v>
+        <v>2874.949352687608</v>
       </c>
       <c r="O26" t="n">
-        <v>3519.24114314043</v>
+        <v>3581.285340966989</v>
       </c>
       <c r="P26" t="n">
-        <v>4094.706440922136</v>
+        <v>4156.750638748695</v>
       </c>
       <c r="Q26" t="n">
-        <v>4450.228167889912</v>
+        <v>4512.272365716471</v>
       </c>
       <c r="R26" t="n">
-        <v>4512.272365716472</v>
+        <v>4512.272365716471</v>
       </c>
       <c r="S26" t="n">
-        <v>4512.272365716472</v>
+        <v>4382.505706547148</v>
       </c>
       <c r="T26" t="n">
-        <v>4295.830876243825</v>
+        <v>4166.064217074501</v>
       </c>
       <c r="U26" t="n">
-        <v>4295.830876243825</v>
+        <v>4166.064217074501</v>
       </c>
       <c r="V26" t="n">
-        <v>3953.724066947343</v>
+        <v>3823.95740777802</v>
       </c>
       <c r="W26" t="n">
-        <v>3582.725031915631</v>
+        <v>3452.958372746307</v>
       </c>
       <c r="X26" t="n">
-        <v>3193.272426848687</v>
+        <v>3063.505767679364</v>
       </c>
       <c r="Y26" t="n">
-        <v>2796.781717769288</v>
+        <v>2667.015058599965</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>850.7092166768796</v>
+        <v>850.7092166768795</v>
       </c>
       <c r="C27" t="n">
-        <v>700.0549862369718</v>
+        <v>700.0549862369717</v>
       </c>
       <c r="D27" t="n">
-        <v>569.9660188584521</v>
+        <v>569.966018858452</v>
       </c>
       <c r="E27" t="n">
-        <v>433.5195279693398</v>
+        <v>433.5195279693397</v>
       </c>
       <c r="F27" t="n">
-        <v>309.0877218524716</v>
+        <v>309.0877218524715</v>
       </c>
       <c r="G27" t="n">
         <v>189.8907156695953</v>
@@ -6302,31 +6302,31 @@
         <v>109.9262442836216</v>
       </c>
       <c r="I27" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J27" t="n">
-        <v>90.24544731432944</v>
+        <v>283.2550340573836</v>
       </c>
       <c r="K27" t="n">
-        <v>138.0970858900754</v>
+        <v>739.546784675356</v>
       </c>
       <c r="L27" t="n">
-        <v>805.2750002516584</v>
+        <v>1020.064565245501</v>
       </c>
       <c r="M27" t="n">
-        <v>928.0780928290227</v>
+        <v>1142.867657822865</v>
       </c>
       <c r="N27" t="n">
-        <v>1803.793399986323</v>
+        <v>1278.286602043981</v>
       </c>
       <c r="O27" t="n">
-        <v>2233.06575219081</v>
+        <v>1387.725612888957</v>
       </c>
       <c r="P27" t="n">
-        <v>2308.333713649399</v>
+        <v>1954.827474235065</v>
       </c>
       <c r="Q27" t="n">
-        <v>2326.200874922631</v>
+        <v>2297.137998687542</v>
       </c>
       <c r="R27" t="n">
         <v>2326.200874922631</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>844.0029170308287</v>
+        <v>140.2237508801337</v>
       </c>
       <c r="C28" t="n">
-        <v>673.7977990968179</v>
+        <v>140.2237508801337</v>
       </c>
       <c r="D28" t="n">
-        <v>518.1646859993327</v>
+        <v>140.2237508801337</v>
       </c>
       <c r="E28" t="n">
-        <v>518.1646859993327</v>
+        <v>140.2237508801337</v>
       </c>
       <c r="F28" t="n">
-        <v>518.1646859993327</v>
+        <v>140.2237508801337</v>
       </c>
       <c r="G28" t="n">
-        <v>350.6339844822786</v>
+        <v>140.2237508801337</v>
       </c>
       <c r="H28" t="n">
-        <v>201.586693726167</v>
+        <v>140.2237508801337</v>
       </c>
       <c r="I28" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J28" t="n">
         <v>110.5950120614516</v>
@@ -6408,28 +6408,28 @@
         <v>1664.753582077041</v>
       </c>
       <c r="R28" t="n">
-        <v>1573.3771462441</v>
+        <v>1664.753582077041</v>
       </c>
       <c r="S28" t="n">
-        <v>1383.167121691833</v>
+        <v>1664.753582077041</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.167121691833</v>
+        <v>1432.12521770205</v>
       </c>
       <c r="U28" t="n">
-        <v>1333.094323393361</v>
+        <v>1146.725881528505</v>
       </c>
       <c r="V28" t="n">
-        <v>1067.114978214185</v>
+        <v>880.7465363493296</v>
       </c>
       <c r="W28" t="n">
-        <v>1067.114978214185</v>
+        <v>597.4161342805073</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.114978214185</v>
+        <v>363.3358120634904</v>
       </c>
       <c r="Y28" t="n">
-        <v>844.0029170308287</v>
+        <v>140.2237508801337</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2099.890206404709</v>
+        <v>2227.338080000254</v>
       </c>
       <c r="C29" t="n">
-        <v>1706.71470490764</v>
+        <v>1834.162578503184</v>
       </c>
       <c r="D29" t="n">
-        <v>1321.273576124308</v>
+        <v>1448.721449719852</v>
       </c>
       <c r="E29" t="n">
-        <v>918.690051240852</v>
+        <v>1046.137924836396</v>
       </c>
       <c r="F29" t="n">
-        <v>501.7956127708297</v>
+        <v>629.2434863663742</v>
       </c>
       <c r="G29" t="n">
-        <v>90.24544731432944</v>
+        <v>217.6933209098739</v>
       </c>
       <c r="H29" t="n">
-        <v>90.24544731432944</v>
+        <v>166.4131861073342</v>
       </c>
       <c r="I29" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J29" t="n">
-        <v>369.0381407979252</v>
+        <v>107.8853283261744</v>
       </c>
       <c r="K29" t="n">
-        <v>929.0659618020446</v>
+        <v>667.9131493302939</v>
       </c>
       <c r="L29" t="n">
-        <v>1507.457878149896</v>
+        <v>1410.648118008456</v>
       </c>
       <c r="M29" t="n">
-        <v>2330.980663375397</v>
+        <v>2065.125589626799</v>
       </c>
       <c r="N29" t="n">
-        <v>3140.804426436205</v>
+        <v>2874.949352687608</v>
       </c>
       <c r="O29" t="n">
-        <v>3847.140414715586</v>
+        <v>3581.285340966989</v>
       </c>
       <c r="P29" t="n">
-        <v>4422.605712497292</v>
+        <v>4156.750638748695</v>
       </c>
       <c r="Q29" t="n">
-        <v>4450.228167889912</v>
+        <v>4512.272365716471</v>
       </c>
       <c r="R29" t="n">
-        <v>4512.272365716472</v>
+        <v>4512.272365716471</v>
       </c>
       <c r="S29" t="n">
-        <v>4471.499322424251</v>
+        <v>4382.505706547148</v>
       </c>
       <c r="T29" t="n">
-        <v>4255.057832951604</v>
+        <v>4382.505706547148</v>
       </c>
       <c r="U29" t="n">
-        <v>3999.434110590642</v>
+        <v>4126.881984186187</v>
       </c>
       <c r="V29" t="n">
-        <v>3657.327301294161</v>
+        <v>3784.775174889705</v>
       </c>
       <c r="W29" t="n">
-        <v>3286.328266262448</v>
+        <v>3413.776139857993</v>
       </c>
       <c r="X29" t="n">
-        <v>2896.875661195505</v>
+        <v>3024.323534791049</v>
       </c>
       <c r="Y29" t="n">
-        <v>2500.384952116106</v>
+        <v>2627.83282571165</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>850.7092166768796</v>
+        <v>850.7092166768795</v>
       </c>
       <c r="C30" t="n">
-        <v>700.0549862369718</v>
+        <v>700.0549862369717</v>
       </c>
       <c r="D30" t="n">
-        <v>569.9660188584521</v>
+        <v>569.966018858452</v>
       </c>
       <c r="E30" t="n">
-        <v>433.5195279693398</v>
+        <v>433.5195279693397</v>
       </c>
       <c r="F30" t="n">
-        <v>309.0877218524716</v>
+        <v>309.0877218524715</v>
       </c>
       <c r="G30" t="n">
         <v>189.8907156695953</v>
@@ -6539,10 +6539,10 @@
         <v>109.9262442836216</v>
       </c>
       <c r="I30" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J30" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="K30" t="n">
         <v>138.0970858900754</v>
@@ -6557,7 +6557,7 @@
         <v>1063.497037050139</v>
       </c>
       <c r="O30" t="n">
-        <v>1741.231852303291</v>
+        <v>1781.217013786095</v>
       </c>
       <c r="P30" t="n">
         <v>2308.333713649399</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.4505652483402</v>
+        <v>423.554152948956</v>
       </c>
       <c r="C31" t="n">
-        <v>90.24544731432944</v>
+        <v>253.3490350149452</v>
       </c>
       <c r="D31" t="n">
-        <v>90.24544731432944</v>
+        <v>253.3490350149452</v>
       </c>
       <c r="E31" t="n">
-        <v>90.24544731432944</v>
+        <v>253.3490350149452</v>
       </c>
       <c r="F31" t="n">
-        <v>90.24544731432944</v>
+        <v>253.3490350149452</v>
       </c>
       <c r="G31" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="H31" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="I31" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J31" t="n">
         <v>110.5950120614516</v>
@@ -6645,28 +6645,28 @@
         <v>1664.753582077041</v>
       </c>
       <c r="R31" t="n">
-        <v>1642.37073914028</v>
+        <v>1664.753582077041</v>
       </c>
       <c r="S31" t="n">
-        <v>1452.160714588013</v>
+        <v>1664.753582077041</v>
       </c>
       <c r="T31" t="n">
-        <v>1452.160714588013</v>
+        <v>1432.12521770205</v>
       </c>
       <c r="U31" t="n">
-        <v>1452.160714588013</v>
+        <v>1146.725881528505</v>
       </c>
       <c r="V31" t="n">
-        <v>1186.181369408838</v>
+        <v>880.7465363493296</v>
       </c>
       <c r="W31" t="n">
-        <v>902.8509673400151</v>
+        <v>880.7465363493296</v>
       </c>
       <c r="X31" t="n">
-        <v>668.7706451229982</v>
+        <v>646.6662141323127</v>
       </c>
       <c r="Y31" t="n">
-        <v>445.6585839396415</v>
+        <v>423.554152948956</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2099.890206404709</v>
+        <v>2407.458318932364</v>
       </c>
       <c r="C32" t="n">
-        <v>1706.71470490764</v>
+        <v>2014.282817435295</v>
       </c>
       <c r="D32" t="n">
-        <v>1321.273576124308</v>
+        <v>1628.841688651963</v>
       </c>
       <c r="E32" t="n">
-        <v>918.690051240852</v>
+        <v>1226.258163768507</v>
       </c>
       <c r="F32" t="n">
-        <v>501.7956127708297</v>
+        <v>809.3637252984851</v>
       </c>
       <c r="G32" t="n">
-        <v>90.24544731432944</v>
+        <v>397.8135598419848</v>
       </c>
       <c r="H32" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="I32" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J32" t="n">
-        <v>107.8853283261745</v>
+        <v>369.0381407979251</v>
       </c>
       <c r="K32" t="n">
-        <v>667.9131493302939</v>
+        <v>929.0659618020445</v>
       </c>
       <c r="L32" t="n">
-        <v>1410.648118008456</v>
+        <v>1671.800930480206</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.170903233957</v>
+        <v>2393.024861201956</v>
       </c>
       <c r="N32" t="n">
-        <v>3043.994666294765</v>
+        <v>3202.848624262764</v>
       </c>
       <c r="O32" t="n">
-        <v>3750.330654574146</v>
+        <v>3909.184612542145</v>
       </c>
       <c r="P32" t="n">
-        <v>4325.795952355852</v>
+        <v>4484.649910323851</v>
       </c>
       <c r="Q32" t="n">
-        <v>4512.272365716472</v>
+        <v>4512.272365716471</v>
       </c>
       <c r="R32" t="n">
-        <v>4512.272365716472</v>
+        <v>4512.272365716471</v>
       </c>
       <c r="S32" t="n">
-        <v>4382.505706547149</v>
+        <v>4382.505706547148</v>
       </c>
       <c r="T32" t="n">
-        <v>4255.057832951604</v>
+        <v>4382.505706547148</v>
       </c>
       <c r="U32" t="n">
-        <v>3999.434110590642</v>
+        <v>4307.002223118297</v>
       </c>
       <c r="V32" t="n">
-        <v>3657.327301294161</v>
+        <v>3964.895413821816</v>
       </c>
       <c r="W32" t="n">
-        <v>3286.328266262448</v>
+        <v>3593.896378790103</v>
       </c>
       <c r="X32" t="n">
-        <v>2896.875661195505</v>
+        <v>3204.44377372316</v>
       </c>
       <c r="Y32" t="n">
-        <v>2500.384952116106</v>
+        <v>2807.953064643761</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>850.7092166768796</v>
+        <v>850.7092166768795</v>
       </c>
       <c r="C33" t="n">
-        <v>700.0549862369718</v>
+        <v>700.0549862369717</v>
       </c>
       <c r="D33" t="n">
-        <v>569.9660188584521</v>
+        <v>569.966018858452</v>
       </c>
       <c r="E33" t="n">
-        <v>433.5195279693398</v>
+        <v>433.5195279693397</v>
       </c>
       <c r="F33" t="n">
-        <v>309.0877218524716</v>
+        <v>309.0877218524715</v>
       </c>
       <c r="G33" t="n">
         <v>189.8907156695953</v>
@@ -6776,31 +6776,31 @@
         <v>109.9262442836216</v>
       </c>
       <c r="I33" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J33" t="n">
-        <v>90.24544731432944</v>
+        <v>283.2550340573836</v>
       </c>
       <c r="K33" t="n">
-        <v>138.0970858900754</v>
+        <v>739.546784675356</v>
       </c>
       <c r="L33" t="n">
-        <v>805.2750002516584</v>
+        <v>833.9988697502768</v>
       </c>
       <c r="M33" t="n">
-        <v>1647.312993284523</v>
+        <v>956.801962327641</v>
       </c>
       <c r="N33" t="n">
-        <v>1782.731937505639</v>
+        <v>1092.220906548758</v>
       </c>
       <c r="O33" t="n">
-        <v>1892.170948350614</v>
+        <v>1387.725612888957</v>
       </c>
       <c r="P33" t="n">
-        <v>2308.333713649399</v>
+        <v>1954.827474235065</v>
       </c>
       <c r="Q33" t="n">
-        <v>2326.200874922631</v>
+        <v>2297.137998687542</v>
       </c>
       <c r="R33" t="n">
         <v>2326.200874922631</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.24544731432944</v>
+        <v>566.8750155957279</v>
       </c>
       <c r="C34" t="n">
-        <v>90.24544731432944</v>
+        <v>566.8750155957279</v>
       </c>
       <c r="D34" t="n">
-        <v>90.24544731432944</v>
+        <v>566.8750155957279</v>
       </c>
       <c r="E34" t="n">
-        <v>90.24544731432944</v>
+        <v>566.8750155957279</v>
       </c>
       <c r="F34" t="n">
-        <v>90.24544731432944</v>
+        <v>409.5490808087008</v>
       </c>
       <c r="G34" t="n">
-        <v>90.24544731432944</v>
+        <v>242.0183792916467</v>
       </c>
       <c r="H34" t="n">
-        <v>90.24544731432944</v>
+        <v>201.5866937261669</v>
       </c>
       <c r="I34" t="n">
-        <v>90.24544731432944</v>
+        <v>90.24544731432941</v>
       </c>
       <c r="J34" t="n">
         <v>110.5950120614516</v>
@@ -6885,25 +6885,25 @@
         <v>1573.3771462441</v>
       </c>
       <c r="S34" t="n">
-        <v>1383.167121691833</v>
+        <v>1573.3771462441</v>
       </c>
       <c r="T34" t="n">
-        <v>1150.538757316842</v>
+        <v>1573.3771462441</v>
       </c>
       <c r="U34" t="n">
-        <v>865.1394211432971</v>
+        <v>1573.3771462441</v>
       </c>
       <c r="V34" t="n">
-        <v>599.1600759641213</v>
+        <v>1307.397801064924</v>
       </c>
       <c r="W34" t="n">
-        <v>315.829673895299</v>
+        <v>1024.067398996101</v>
       </c>
       <c r="X34" t="n">
-        <v>90.24544731432944</v>
+        <v>789.9870767790845</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.24544731432944</v>
+        <v>566.8750155957279</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>438.807244917647</v>
+        <v>965.3824520018184</v>
       </c>
       <c r="C35" t="n">
-        <v>45.63174342057759</v>
+        <v>941.2774455670601</v>
       </c>
       <c r="D35" t="n">
-        <v>45.63174342057759</v>
+        <v>941.2774455670601</v>
       </c>
       <c r="E35" t="n">
-        <v>45.63174342057759</v>
+        <v>538.6939206836047</v>
       </c>
       <c r="F35" t="n">
-        <v>45.63174342057759</v>
+        <v>121.7994822135824</v>
       </c>
       <c r="G35" t="n">
-        <v>45.63174342057759</v>
+        <v>121.7994822135824</v>
       </c>
       <c r="H35" t="n">
-        <v>45.63174342057759</v>
+        <v>121.7994822135824</v>
       </c>
       <c r="I35" t="n">
         <v>45.63174342057759</v>
       </c>
       <c r="J35" t="n">
-        <v>63.27162443242261</v>
+        <v>324.4244369041733</v>
       </c>
       <c r="K35" t="n">
-        <v>623.2994454365421</v>
+        <v>884.4522579082927</v>
       </c>
       <c r="L35" t="n">
-        <v>720.9984343629883</v>
+        <v>982.1512468347389</v>
       </c>
       <c r="M35" t="n">
-        <v>1285.691259192636</v>
+        <v>1111.44533093391</v>
       </c>
       <c r="N35" t="n">
-        <v>1850.384084022284</v>
+        <v>1245.83050393285</v>
       </c>
       <c r="O35" t="n">
-        <v>2113.441144928032</v>
+        <v>1364.058692270047</v>
       </c>
       <c r="P35" t="n">
-        <v>2191.9205178097</v>
+        <v>1926.065444061103</v>
       </c>
       <c r="Q35" t="n">
-        <v>2219.542973202319</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="R35" t="n">
         <v>2281.587171028879</v>
       </c>
       <c r="S35" t="n">
-        <v>2281.587171028879</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="T35" t="n">
-        <v>2281.587171028879</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="U35" t="n">
-        <v>2281.587171028879</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="V35" t="n">
-        <v>1996.244339807099</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="W35" t="n">
-        <v>1625.245304775386</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="X35" t="n">
-        <v>1235.792699708443</v>
+        <v>1762.367906792614</v>
       </c>
       <c r="Y35" t="n">
-        <v>839.301990629044</v>
+        <v>1365.877197713215</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>45.63174342057759</v>
       </c>
       <c r="J36" t="n">
-        <v>45.63174342057759</v>
+        <v>238.6413301636318</v>
       </c>
       <c r="K36" t="n">
-        <v>93.48338199632353</v>
+        <v>694.9330807816041</v>
       </c>
       <c r="L36" t="n">
-        <v>658.1762068259711</v>
+        <v>789.3851658565248</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.869031655619</v>
+        <v>912.1882584338891</v>
       </c>
       <c r="N36" t="n">
-        <v>1787.561856485266</v>
+        <v>1047.607202655005</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.452048297058</v>
+        <v>1345.520945511666</v>
       </c>
       <c r="P36" t="n">
-        <v>2263.720009755648</v>
+        <v>1910.213770341314</v>
       </c>
       <c r="Q36" t="n">
-        <v>2281.587171028879</v>
+        <v>2252.52429479379</v>
       </c>
       <c r="R36" t="n">
         <v>2281.587171028879</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>694.5594881099253</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="C37" t="n">
-        <v>524.3543701759145</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="D37" t="n">
-        <v>368.7212570784292</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="E37" t="n">
-        <v>213.1624449376316</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="F37" t="n">
-        <v>213.1624449376316</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="G37" t="n">
         <v>45.63174342057759</v>
@@ -7122,25 +7122,25 @@
         <v>1620.13987818329</v>
       </c>
       <c r="S37" t="n">
-        <v>1620.13987818329</v>
+        <v>1429.929853631023</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.511513808298</v>
+        <v>1197.301489256032</v>
       </c>
       <c r="U37" t="n">
-        <v>1102.112177634754</v>
+        <v>911.9021530824871</v>
       </c>
       <c r="V37" t="n">
-        <v>836.1328324555778</v>
+        <v>645.9228079033113</v>
       </c>
       <c r="W37" t="n">
-        <v>836.1328324555778</v>
+        <v>362.5924058344889</v>
       </c>
       <c r="X37" t="n">
-        <v>836.1328324555778</v>
+        <v>128.512083617472</v>
       </c>
       <c r="Y37" t="n">
-        <v>694.5594881099253</v>
+        <v>128.512083617472</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2281.587171028879</v>
+        <v>1235.79853915748</v>
       </c>
       <c r="C38" t="n">
-        <v>1888.41166953181</v>
+        <v>842.6230376604101</v>
       </c>
       <c r="D38" t="n">
-        <v>1502.970540748478</v>
+        <v>457.1819088770779</v>
       </c>
       <c r="E38" t="n">
-        <v>1100.387015865022</v>
+        <v>457.1819088770779</v>
       </c>
       <c r="F38" t="n">
-        <v>683.4925773949998</v>
+        <v>457.1819088770779</v>
       </c>
       <c r="G38" t="n">
-        <v>271.9424119384995</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="H38" t="n">
-        <v>121.7994822135824</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="I38" t="n">
         <v>45.63174342057759</v>
       </c>
       <c r="J38" t="n">
-        <v>63.27162443242261</v>
+        <v>324.4244369041733</v>
       </c>
       <c r="K38" t="n">
-        <v>122.6892702616353</v>
+        <v>884.4522579082927</v>
       </c>
       <c r="L38" t="n">
-        <v>687.382095091283</v>
+        <v>982.1512468347389</v>
       </c>
       <c r="M38" t="n">
-        <v>1252.074919920931</v>
+        <v>1111.44533093391</v>
       </c>
       <c r="N38" t="n">
-        <v>1548.748320098384</v>
+        <v>1245.83050393285</v>
       </c>
       <c r="O38" t="n">
-        <v>2113.441144928032</v>
+        <v>1364.058692270047</v>
       </c>
       <c r="P38" t="n">
-        <v>2191.9205178097</v>
+        <v>1926.065444061103</v>
       </c>
       <c r="Q38" t="n">
-        <v>2219.542973202319</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="R38" t="n">
         <v>2281.587171028879</v>
@@ -7204,22 +7204,22 @@
         <v>2281.587171028879</v>
       </c>
       <c r="T38" t="n">
-        <v>2281.587171028879</v>
+        <v>2065.145681556232</v>
       </c>
       <c r="U38" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="V38" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="W38" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="X38" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="Y38" t="n">
-        <v>2281.587171028879</v>
+        <v>1413.031250115871</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>45.63174342057759</v>
       </c>
       <c r="K39" t="n">
-        <v>501.92349403855</v>
+        <v>413.1670730385625</v>
       </c>
       <c r="L39" t="n">
-        <v>1066.616318868198</v>
+        <v>977.8598978682102</v>
       </c>
       <c r="M39" t="n">
-        <v>1189.419411445562</v>
+        <v>1100.662990445574</v>
       </c>
       <c r="N39" t="n">
-        <v>1324.838355666678</v>
+        <v>1236.081934666691</v>
       </c>
       <c r="O39" t="n">
-        <v>1699.027184926</v>
+        <v>1345.520945511666</v>
       </c>
       <c r="P39" t="n">
-        <v>2263.720009755648</v>
+        <v>1910.213770341314</v>
       </c>
       <c r="Q39" t="n">
-        <v>2281.587171028879</v>
+        <v>2252.52429479379</v>
       </c>
       <c r="R39" t="n">
         <v>2281.587171028879</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>684.3547213798981</v>
+        <v>594.217756540549</v>
       </c>
       <c r="C40" t="n">
-        <v>514.1496034458874</v>
+        <v>424.0126386065382</v>
       </c>
       <c r="D40" t="n">
-        <v>358.5164903484022</v>
+        <v>424.0126386065382</v>
       </c>
       <c r="E40" t="n">
-        <v>202.9576782076046</v>
+        <v>370.4883797246587</v>
       </c>
       <c r="F40" t="n">
-        <v>45.63174342057759</v>
+        <v>213.1624449376316</v>
       </c>
       <c r="G40" t="n">
         <v>45.63174342057759</v>
@@ -7359,25 +7359,25 @@
         <v>1620.13987818329</v>
       </c>
       <c r="S40" t="n">
-        <v>1610.085525540395</v>
+        <v>1620.13987818329</v>
       </c>
       <c r="T40" t="n">
-        <v>1610.085525540395</v>
+        <v>1620.13987818329</v>
       </c>
       <c r="U40" t="n">
-        <v>1610.085525540395</v>
+        <v>1334.740542009745</v>
       </c>
       <c r="V40" t="n">
-        <v>1610.085525540395</v>
+        <v>1334.740542009745</v>
       </c>
       <c r="W40" t="n">
-        <v>1326.755123471573</v>
+        <v>1051.410139940923</v>
       </c>
       <c r="X40" t="n">
-        <v>1092.674801254556</v>
+        <v>817.3298177239056</v>
       </c>
       <c r="Y40" t="n">
-        <v>869.5627400711994</v>
+        <v>594.217756540549</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.028721633742</v>
+        <v>1679.755300025949</v>
       </c>
       <c r="C41" t="n">
-        <v>1179.028721633742</v>
+        <v>1679.755300025949</v>
       </c>
       <c r="D41" t="n">
-        <v>1179.028721633742</v>
+        <v>1584.227984758211</v>
       </c>
       <c r="E41" t="n">
-        <v>776.4451967502864</v>
+        <v>1181.644459874756</v>
       </c>
       <c r="F41" t="n">
-        <v>359.5507582802642</v>
+        <v>764.7500214047333</v>
       </c>
       <c r="G41" t="n">
-        <v>45.63174342057759</v>
+        <v>353.199855948233</v>
       </c>
       <c r="H41" t="n">
         <v>45.63174342057759</v>
@@ -7411,52 +7411,52 @@
         <v>45.63174342057759</v>
       </c>
       <c r="J41" t="n">
-        <v>63.27162443242261</v>
+        <v>324.4244369041733</v>
       </c>
       <c r="K41" t="n">
-        <v>122.6892702616353</v>
+        <v>884.4522579082927</v>
       </c>
       <c r="L41" t="n">
-        <v>687.382095091283</v>
+        <v>982.1512468347389</v>
       </c>
       <c r="M41" t="n">
-        <v>1252.074919920931</v>
+        <v>1111.44533093391</v>
       </c>
       <c r="N41" t="n">
-        <v>1548.748320098384</v>
+        <v>1245.83050393285</v>
       </c>
       <c r="O41" t="n">
-        <v>2113.441144928032</v>
+        <v>1689.271890806613</v>
       </c>
       <c r="P41" t="n">
-        <v>2191.9205178097</v>
+        <v>2253.96471563626</v>
       </c>
       <c r="Q41" t="n">
-        <v>2219.542973202319</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="R41" t="n">
         <v>2281.587171028879</v>
       </c>
       <c r="S41" t="n">
-        <v>2281.587171028879</v>
+        <v>2151.820511859557</v>
       </c>
       <c r="T41" t="n">
-        <v>2281.587171028879</v>
+        <v>1935.37902238691</v>
       </c>
       <c r="U41" t="n">
-        <v>2281.587171028879</v>
+        <v>1679.755300025949</v>
       </c>
       <c r="V41" t="n">
-        <v>1939.480361732398</v>
+        <v>1679.755300025949</v>
       </c>
       <c r="W41" t="n">
-        <v>1568.481326700685</v>
+        <v>1679.755300025949</v>
       </c>
       <c r="X41" t="n">
-        <v>1179.028721633742</v>
+        <v>1679.755300025949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1179.028721633742</v>
+        <v>1679.755300025949</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>45.63174342057759</v>
       </c>
       <c r="J42" t="n">
-        <v>45.63174342057759</v>
+        <v>238.6413301636318</v>
       </c>
       <c r="K42" t="n">
-        <v>501.92349403855</v>
+        <v>694.9330807816041</v>
       </c>
       <c r="L42" t="n">
-        <v>596.3755791134707</v>
+        <v>789.3851658565248</v>
       </c>
       <c r="M42" t="n">
-        <v>719.178671690835</v>
+        <v>912.1882584338891</v>
       </c>
       <c r="N42" t="n">
-        <v>854.5976159119514</v>
+        <v>1265.14481090178</v>
       </c>
       <c r="O42" t="n">
-        <v>1419.290440741599</v>
+        <v>1374.583821746755</v>
       </c>
       <c r="P42" t="n">
-        <v>1983.983265571247</v>
+        <v>1939.276646576403</v>
       </c>
       <c r="Q42" t="n">
         <v>2281.587171028879</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1618.088139813006</v>
+        <v>520.5172652081852</v>
       </c>
       <c r="C43" t="n">
-        <v>1447.883021878995</v>
+        <v>350.3121472741744</v>
       </c>
       <c r="D43" t="n">
-        <v>1447.883021878995</v>
+        <v>194.6790341766892</v>
       </c>
       <c r="E43" t="n">
-        <v>1292.324209738197</v>
+        <v>194.6790341766892</v>
       </c>
       <c r="F43" t="n">
-        <v>1134.99827495117</v>
+        <v>194.6790341766892</v>
       </c>
       <c r="G43" t="n">
-        <v>967.4675734341162</v>
+        <v>194.6790341766892</v>
       </c>
       <c r="H43" t="n">
-        <v>818.4202826780046</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="I43" t="n">
-        <v>707.079036266167</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="J43" t="n">
-        <v>727.4286010132892</v>
+        <v>65.98130816769975</v>
       </c>
       <c r="K43" t="n">
-        <v>891.6316333619442</v>
+        <v>230.1843405163548</v>
       </c>
       <c r="L43" t="n">
-        <v>1161.161943714454</v>
+        <v>499.7146508688647</v>
       </c>
       <c r="M43" t="n">
-        <v>1458.585859527611</v>
+        <v>797.1385666820215</v>
       </c>
       <c r="N43" t="n">
-        <v>1750.265352441548</v>
+        <v>1088.818059595958</v>
       </c>
       <c r="O43" t="n">
-        <v>2013.178063753953</v>
+        <v>1351.730770908364</v>
       </c>
       <c r="P43" t="n">
-        <v>2218.799437311427</v>
+        <v>1557.352144465837</v>
       </c>
       <c r="Q43" t="n">
-        <v>2281.587171028879</v>
+        <v>1620.13987818329</v>
       </c>
       <c r="R43" t="n">
-        <v>2190.210735195938</v>
+        <v>1528.763442350348</v>
       </c>
       <c r="S43" t="n">
-        <v>2000.000710643671</v>
+        <v>1528.763442350348</v>
       </c>
       <c r="T43" t="n">
-        <v>1767.37234626868</v>
+        <v>1528.763442350348</v>
       </c>
       <c r="U43" t="n">
-        <v>1767.37234626868</v>
+        <v>1243.364106176803</v>
       </c>
       <c r="V43" t="n">
-        <v>1767.37234626868</v>
+        <v>1243.364106176803</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.088139813006</v>
+        <v>960.0337041079808</v>
       </c>
       <c r="X43" t="n">
-        <v>1618.088139813006</v>
+        <v>725.9533818909639</v>
       </c>
       <c r="Y43" t="n">
-        <v>1618.088139813006</v>
+        <v>705.7252838994865</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1669.835373727625</v>
+        <v>681.4718357524464</v>
       </c>
       <c r="C44" t="n">
-        <v>1276.659872230556</v>
+        <v>681.4718357524464</v>
       </c>
       <c r="D44" t="n">
-        <v>1276.659872230556</v>
+        <v>681.4718357524464</v>
       </c>
       <c r="E44" t="n">
-        <v>874.0763473471002</v>
+        <v>681.4718357524464</v>
       </c>
       <c r="F44" t="n">
-        <v>457.1819088770779</v>
+        <v>681.4718357524464</v>
       </c>
       <c r="G44" t="n">
-        <v>45.63174342057759</v>
+        <v>353.199855948233</v>
       </c>
       <c r="H44" t="n">
         <v>45.63174342057759</v>
@@ -7648,28 +7648,28 @@
         <v>45.63174342057759</v>
       </c>
       <c r="J44" t="n">
-        <v>63.27162443242261</v>
+        <v>324.4244369041733</v>
       </c>
       <c r="K44" t="n">
-        <v>122.6892702616353</v>
+        <v>884.4522579082927</v>
       </c>
       <c r="L44" t="n">
-        <v>419.362670439089</v>
+        <v>1449.14508273794</v>
       </c>
       <c r="M44" t="n">
-        <v>984.0554952687366</v>
+        <v>1578.439166837111</v>
       </c>
       <c r="N44" t="n">
-        <v>1548.748320098384</v>
+        <v>2057.257154417395</v>
       </c>
       <c r="O44" t="n">
-        <v>2113.441144928032</v>
+        <v>2175.485342754592</v>
       </c>
       <c r="P44" t="n">
-        <v>2191.9205178097</v>
+        <v>2253.96471563626</v>
       </c>
       <c r="Q44" t="n">
-        <v>2219.542973202319</v>
+        <v>2281.587171028879</v>
       </c>
       <c r="R44" t="n">
         <v>2281.587171028879</v>
@@ -7678,22 +7678,22 @@
         <v>2281.587171028879</v>
       </c>
       <c r="T44" t="n">
-        <v>2281.587171028879</v>
+        <v>2065.145681556232</v>
       </c>
       <c r="U44" t="n">
-        <v>2281.587171028879</v>
+        <v>1809.52195919527</v>
       </c>
       <c r="V44" t="n">
-        <v>2281.587171028879</v>
+        <v>1467.415149898789</v>
       </c>
       <c r="W44" t="n">
-        <v>2281.587171028879</v>
+        <v>1467.415149898789</v>
       </c>
       <c r="X44" t="n">
-        <v>2281.587171028879</v>
+        <v>1077.962544831845</v>
       </c>
       <c r="Y44" t="n">
-        <v>2070.330119439022</v>
+        <v>681.4718357524464</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>45.63174342057759</v>
       </c>
       <c r="J45" t="n">
-        <v>45.63174342057759</v>
+        <v>238.6413301636318</v>
       </c>
       <c r="K45" t="n">
-        <v>93.48338199632353</v>
+        <v>694.9330807816041</v>
       </c>
       <c r="L45" t="n">
-        <v>187.9354670712443</v>
+        <v>977.8598978682102</v>
       </c>
       <c r="M45" t="n">
-        <v>569.641535266705</v>
+        <v>1100.662990445574</v>
       </c>
       <c r="N45" t="n">
-        <v>1134.334360096353</v>
+        <v>1236.081934666691</v>
       </c>
       <c r="O45" t="n">
-        <v>1699.027184926</v>
+        <v>1345.520945511666</v>
       </c>
       <c r="P45" t="n">
-        <v>2263.720009755648</v>
+        <v>1910.213770341314</v>
       </c>
       <c r="Q45" t="n">
-        <v>2281.587171028879</v>
+        <v>2252.52429479379</v>
       </c>
       <c r="R45" t="n">
         <v>2281.587171028879</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.9729898324151</v>
+        <v>1000.932713653064</v>
       </c>
       <c r="C46" t="n">
-        <v>156.9729898324151</v>
+        <v>830.7275957190529</v>
       </c>
       <c r="D46" t="n">
-        <v>156.9729898324151</v>
+        <v>675.0944826215677</v>
       </c>
       <c r="E46" t="n">
-        <v>156.9729898324151</v>
+        <v>519.5356704807702</v>
       </c>
       <c r="F46" t="n">
-        <v>156.9729898324151</v>
+        <v>362.2097356937433</v>
       </c>
       <c r="G46" t="n">
-        <v>156.9729898324151</v>
+        <v>194.6790341766892</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9729898324151</v>
+        <v>45.63174342057759</v>
       </c>
       <c r="I46" t="n">
         <v>45.63174342057759</v>
@@ -7830,28 +7830,28 @@
         <v>1620.13987818329</v>
       </c>
       <c r="R46" t="n">
-        <v>1528.763442350348</v>
+        <v>1620.13987818329</v>
       </c>
       <c r="S46" t="n">
-        <v>1338.553417798081</v>
+        <v>1429.929853631023</v>
       </c>
       <c r="T46" t="n">
-        <v>1105.92505342309</v>
+        <v>1429.929853631023</v>
       </c>
       <c r="U46" t="n">
-        <v>820.5257172495453</v>
+        <v>1429.929853631023</v>
       </c>
       <c r="V46" t="n">
-        <v>554.5463720703696</v>
+        <v>1409.252793527722</v>
       </c>
       <c r="W46" t="n">
-        <v>554.5463720703696</v>
+        <v>1409.252793527722</v>
       </c>
       <c r="X46" t="n">
-        <v>320.4660498533526</v>
+        <v>1409.252793527722</v>
       </c>
       <c r="Y46" t="n">
-        <v>320.4660498533526</v>
+        <v>1186.140732344365</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.8911706504834</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>155.7838972645594</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>165.9736638158137</v>
       </c>
       <c r="M2" t="n">
-        <v>162.4505456830493</v>
+        <v>161.9363843058645</v>
       </c>
       <c r="N2" t="n">
-        <v>161.8439854231061</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -7999,7 +7999,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>157.2241925037142</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8063,19 +8063,19 @@
         <v>102.3224294186553</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>102.7858409422402</v>
       </c>
       <c r="M3" t="n">
-        <v>104.5984547574492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>97.58344556230394</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>99.80885890463665</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8139,13 +8139,13 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>92.61318650883278</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L4" t="n">
         <v>100.4005336681269</v>
       </c>
       <c r="M4" t="n">
-        <v>103.0272536512653</v>
+        <v>102.5130922740805</v>
       </c>
       <c r="N4" t="n">
         <v>82.99560390240157</v>
@@ -8154,10 +8154,10 @@
         <v>102.7222440790198</v>
       </c>
       <c r="P4" t="n">
-        <v>89.52320263194594</v>
+        <v>102.2486967172679</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8230,7 +8230,7 @@
         <v>161.3298240459214</v>
       </c>
       <c r="O5" t="n">
-        <v>162.2893315094184</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>163.0269413262472</v>
@@ -8300,22 +8300,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>102.7858409422402</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>104.5984547574492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>98.09760693948866</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>104.8988915970262</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>99.80885890463665</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>103.713647241236</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8376,19 +8376,19 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>83.85861781084799</v>
+        <v>96.58411189616999</v>
       </c>
       <c r="L7" t="n">
-        <v>87.67503958280489</v>
+        <v>100.4005336681269</v>
       </c>
       <c r="M7" t="n">
-        <v>103.0272536512653</v>
+        <v>102.5130922740805</v>
       </c>
       <c r="N7" t="n">
-        <v>95.20693661053885</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O7" t="n">
-        <v>102.7222440790198</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P7" t="n">
         <v>102.2486967172679</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.4053320276681</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>155.7838972645594</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>165.9736638158137</v>
       </c>
       <c r="M8" t="n">
-        <v>161.9363843058645</v>
+        <v>162.4505456830493</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>161.8439854231061</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>161.7751701322337</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>94.65579004147062</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8540,19 +8540,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>105.1126161346339</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>97.58344556230394</v>
+        <v>98.09760693948866</v>
       </c>
       <c r="O9" t="n">
-        <v>105.4130529742109</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>99.80885890463665</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>103.713647241236</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8613,10 +8613,10 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K10" t="n">
-        <v>83.85861781084799</v>
+        <v>92.61318650883278</v>
       </c>
       <c r="L10" t="n">
-        <v>100.4005336681269</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M10" t="n">
         <v>103.0272536512653</v>
@@ -8625,7 +8625,7 @@
         <v>95.72109798772357</v>
       </c>
       <c r="O10" t="n">
-        <v>98.7513186916826</v>
+        <v>102.7222440790198</v>
       </c>
       <c r="P10" t="n">
         <v>89.52320263194594</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>471.7109453567692</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>439.7967078085626</v>
+        <v>439.7967078085624</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>450.9743802954043</v>
+        <v>0.4860238174522777</v>
       </c>
       <c r="P11" t="n">
-        <v>163.927502200519</v>
+        <v>491.1246989373529</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>446.3532649012964</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>433.6099804126579</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>459.8523373582552</v>
+        <v>190.3785171835202</v>
       </c>
       <c r="P12" t="n">
-        <v>280.1770005068511</v>
+        <v>494.3685488596547</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>180.2476887275315</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>471.7109453567691</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>439.7967078085626</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>434.6541937683916</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>328.4981803399648</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>491.1246989373529</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>309.5334411483547</v>
+        <v>474.9906462168958</v>
       </c>
       <c r="M15" t="n">
-        <v>446.3532649012963</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>433.6099804126578</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>459.8523373582551</v>
+        <v>72.46488047605295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>494.3685488596547</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>471.7109453567691</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>439.7967078085625</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>434.6541937683916</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>180.2476887275315</v>
+        <v>488.4114938478665</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>474.9906462168959</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>446.3532649012963</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>190.3785171835206</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>494.3685488596547</v>
       </c>
       <c r="Q18" t="n">
-        <v>315.4393429627492</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>242.918595623047</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>471.7109453567691</v>
+        <v>471.710945356769</v>
       </c>
       <c r="M20" t="n">
-        <v>439.7967078085626</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>434.6541937683916</v>
+        <v>434.6541937683915</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>491.1246989373529</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>191.5906044942563</v>
       </c>
       <c r="R20" t="n">
         <v>39.84670810633726</v>
@@ -9479,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>474.9906462168959</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>446.3532649012963</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>433.6099804126578</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>294.395132289714</v>
+        <v>190.3785171835206</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>494.3685488596547</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>204.724841071425</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9658,10 +9658,10 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>210.8463583661225</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>175.0750203946201</v>
+        <v>187.9451469648732</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>272.243094688071</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>530.488270221387</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
@@ -9898,7 +9898,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>187.9451469648728</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>323.0639811712235</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>485.5484115367727</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>530.488270221387</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10132,10 +10132,10 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>574.0361660688652</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>456.4128670754692</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10357,7 +10357,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>597.9089359824029</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>160.4585434020206</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>39.84670810633726</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.9451469648728</v>
       </c>
       <c r="P33" t="n">
-        <v>344.3381856971672</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>439.7967078085625</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>434.6541937683916</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>146.2917904732837</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>488.411493847867</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>474.9906462168959</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>446.3532649012963</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>433.6099804126578</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>294.395132289714</v>
+        <v>190.3785171835206</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>494.3685488596548</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>471.7109453567691</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>439.7967078085625</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>163.9275022005189</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>450.9743802954042</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>488.411493847867</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>1.742836602700194</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>322.9128192345848</v>
       </c>
       <c r="L39" t="n">
         <v>474.9906462168959</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>267.4240590043909</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>494.3685488596548</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>471.7109453567691</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>439.7967078085625</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>163.9275022005189</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>450.9743802954042</v>
+        <v>328.4981803399652</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>491.1246989373531</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>219.7349578250244</v>
       </c>
       <c r="O42" t="n">
-        <v>459.8523373582551</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>494.3685488596548</v>
       </c>
       <c r="Q42" t="n">
-        <v>282.5623678630317</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>41.65736426415639</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>200.9842537888965</v>
+        <v>471.7109453567691</v>
       </c>
       <c r="M44" t="n">
-        <v>439.7967078085626</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>434.6541937683916</v>
+        <v>347.9119339205492</v>
       </c>
       <c r="O44" t="n">
-        <v>450.9743802954042</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>39.84670810633726</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>1.742836602700194</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>190.3785171835206</v>
       </c>
       <c r="M45" t="n">
-        <v>261.5181571899964</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>433.6099804126578</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>459.8523373582551</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>494.3685488596548</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>41.65736426415639</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.4346638019352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>72.78205952848944</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>75.40606140507479</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>128.4689925776288</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.2770745779208</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.067485137352</v>
+        <v>227.1427269493352</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.5568178485505</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.2278339477191</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>90.46267147461226</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>138.8294037765976</v>
       </c>
       <c r="T13" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5453428118091</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>184.5740294181642</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>156.2139058455979</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>304.4924314023788</v>
@@ -23548,19 +23548,19 @@
         <v>128.4689925776288</v>
       </c>
       <c r="T14" t="n">
-        <v>214.2770745779208</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.067485137352</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>145.2420170747808</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.5568178485505</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.2278339477191</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>90.46267147461226</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.3079243067438</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.8294037765976</v>
+        <v>183.9949629505161</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>161.5105171835311</v>
+        <v>407.4346638019352</v>
       </c>
       <c r="H17" t="n">
-        <v>304.4924314023788</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>75.40606140507479</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>128.4689925776288</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.2770745779208</v>
+        <v>17.65974306368747</v>
       </c>
       <c r="U17" t="n">
         <v>253.067485137352</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>95.29244437656523</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H19" t="n">
         <v>147.5568178485505</v>
       </c>
       <c r="I19" t="n">
-        <v>110.2278339477191</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.3020807312415</v>
+        <v>183.9289725919504</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5453428118091</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>269.5751613633072</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>183.3813209146461</v>
+        <v>407.4346638019352</v>
       </c>
       <c r="H20" t="n">
         <v>304.4924314023788</v>
       </c>
       <c r="I20" t="n">
-        <v>75.40606140507479</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>128.4689925776288</v>
       </c>
       <c r="T20" t="n">
-        <v>214.2770745779208</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.067485137352</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.46267147461226</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>188.3079243067438</v>
+        <v>71.41368270775959</v>
       </c>
       <c r="T22" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.9949629505161</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>38.71858227201284</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>38.71858227201457</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>99.25146440602124</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.8553945018835</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>115.7802296283852</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>11.05963340572862</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>139.5286259833584</v>
       </c>
       <c r="I26" t="n">
         <v>75.40606140507479</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>128.4689925776288</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24615,13 +24615,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.5568178485505</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>60.74931341757287</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.46267147461226</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.3079243067438</v>
       </c>
       <c r="T28" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>232.973272496322</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>304.4924314023788</v>
+        <v>253.7250979478645</v>
       </c>
       <c r="I29" t="n">
-        <v>75.40606140507479</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.10367971833024</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8553945018835</v>
+        <v>4.382842678273846</v>
       </c>
       <c r="H31" t="n">
         <v>147.5568178485505</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.30365696721854</v>
+        <v>90.46267147461226</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>188.3079243067438</v>
       </c>
       <c r="T31" t="n">
-        <v>230.3020807312415</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5453428118091</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>304.4924314023788</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>75.40606140507479</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>88.10367971833082</v>
+        <v>214.2770745779208</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>178.3190365427897</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5568178485505</v>
+        <v>107.5294491387255</v>
       </c>
       <c r="I34" t="n">
-        <v>110.2278339477191</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.3079243067438</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>8.41113467968691</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.379790111688</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>407.4346638019352</v>
@@ -25174,7 +25174,7 @@
         <v>304.4924314023788</v>
       </c>
       <c r="I35" t="n">
-        <v>75.40606140507479</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>128.4689925776288</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>214.2770745779208</v>
@@ -25213,10 +25213,10 @@
         <v>253.067485137352</v>
       </c>
       <c r="V35" t="n">
-        <v>56.19633829395394</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>101.3044017094628</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H37" t="n">
         <v>147.5568178485505</v>
@@ -25362,7 +25362,7 @@
         <v>90.46267147461226</v>
       </c>
       <c r="S37" t="n">
-        <v>188.3079243067438</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.72332966932703</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>221.029414405475</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>155.8509309747109</v>
+        <v>304.4924314023788</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>75.40606140507479</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>128.4689925776288</v>
       </c>
       <c r="T38" t="n">
-        <v>214.2770745779208</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.067485137352</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>101.0142077263288</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.5568178485505</v>
@@ -25599,13 +25599,13 @@
         <v>90.46267147461226</v>
       </c>
       <c r="S40" t="n">
-        <v>178.3541151902786</v>
+        <v>188.3079243067438</v>
       </c>
       <c r="T40" t="n">
         <v>230.3020807312415</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5453428118091</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25633,7 +25633,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>287.0146753804387</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>96.65483909084554</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>304.4924314023788</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>75.40606140507479</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>128.4689925776288</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.2770745779208</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.067485137352</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.8553945018835</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.2278339477191</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>188.3079243067438</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5453428118091</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>132.705733657017</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>200.8551235599604</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>82.44540379576398</v>
       </c>
       <c r="H44" t="n">
-        <v>304.4924314023788</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>75.40606140507479</v>
@@ -25918,22 +25918,22 @@
         <v>128.4689925776288</v>
       </c>
       <c r="T44" t="n">
-        <v>214.2770745779208</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.067485137352</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.3813209146461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.49780908366014</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8553945018835</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5568178485505</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.2278339477191</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.46267147461226</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.3020807312415</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5453428118091</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>242.8492622251157</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554517.0230571255</v>
+        <v>554517.0230571257</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>554517.0230571257</v>
+        <v>554517.0230571255</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>554517.0230571255</v>
+        <v>554517.0230571256</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>784563.7692616403</v>
+        <v>784563.7692616401</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779431.449891431</v>
+        <v>779431.4498914309</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554517.0230571256</v>
+        <v>554517.0230571255</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554517.0230571254</v>
+        <v>554517.0230571255</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>554517.0230571254</v>
+        <v>554517.0230571255</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>522963.3164707346</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707345</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="D2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707344</v>
       </c>
       <c r="E2" t="n">
         <v>345504.2529546337</v>
@@ -26331,31 +26331,31 @@
         <v>345504.2529546336</v>
       </c>
       <c r="H2" t="n">
-        <v>345504.2529546337</v>
+        <v>345504.2529546336</v>
       </c>
       <c r="I2" t="n">
-        <v>473250.8708046361</v>
+        <v>473250.870804636</v>
       </c>
       <c r="J2" t="n">
-        <v>470400.856831009</v>
+        <v>470400.8568310092</v>
       </c>
       <c r="K2" t="n">
         <v>470400.8568310092</v>
       </c>
       <c r="L2" t="n">
-        <v>470400.856831009</v>
+        <v>470400.8568310092</v>
       </c>
       <c r="M2" t="n">
+        <v>345504.2529546338</v>
+      </c>
+      <c r="N2" t="n">
         <v>345504.2529546337</v>
       </c>
-      <c r="N2" t="n">
-        <v>345504.2529546339</v>
-      </c>
       <c r="O2" t="n">
-        <v>345504.2529546337</v>
+        <v>345504.2529546338</v>
       </c>
       <c r="P2" t="n">
-        <v>345504.2529546337</v>
+        <v>345504.2529546338</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4264.605754355376</v>
+        <v>4264.605754355363</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>485556.1487686486</v>
+        <v>485556.1487686485</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151680.4855267927</v>
+        <v>151680.4855267929</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365178.2041540099</v>
+        <v>365178.20415401</v>
       </c>
       <c r="C4" t="n">
         <v>365178.20415401</v>
@@ -26426,37 +26426,37 @@
         <v>365178.2041540099</v>
       </c>
       <c r="E4" t="n">
-        <v>66516.0608320621</v>
+        <v>66516.06083206207</v>
       </c>
       <c r="F4" t="n">
+        <v>66516.06083206207</v>
+      </c>
+      <c r="G4" t="n">
         <v>66516.06083206208</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>66516.06083206207</v>
-      </c>
-      <c r="H4" t="n">
-        <v>66516.06083206208</v>
       </c>
       <c r="I4" t="n">
         <v>116225.1895072158</v>
       </c>
       <c r="J4" t="n">
-        <v>115116.1839325449</v>
+        <v>115116.1839325448</v>
       </c>
       <c r="K4" t="n">
         <v>115116.1839325449</v>
       </c>
       <c r="L4" t="n">
-        <v>115116.1839325449</v>
+        <v>115116.1839325448</v>
       </c>
       <c r="M4" t="n">
-        <v>66516.06083206208</v>
+        <v>66516.0608320621</v>
       </c>
       <c r="N4" t="n">
         <v>66516.06083206208</v>
       </c>
       <c r="O4" t="n">
-        <v>66516.06083206208</v>
+        <v>66516.0608320621</v>
       </c>
       <c r="P4" t="n">
         <v>66516.06083206208</v>
@@ -26478,7 +26478,7 @@
         <v>34401.31004038757</v>
       </c>
       <c r="E5" t="n">
-        <v>43337.35099584839</v>
+        <v>43337.35099584838</v>
       </c>
       <c r="F5" t="n">
         <v>43337.35099584838</v>
@@ -26527,43 +26527,43 @@
         <v>123383.802276337</v>
       </c>
       <c r="D6" t="n">
-        <v>123383.8022763372</v>
+        <v>123383.8022763369</v>
       </c>
       <c r="E6" t="n">
-        <v>-249905.3076419254</v>
+        <v>-250517.2354471532</v>
       </c>
       <c r="F6" t="n">
-        <v>235650.8411267233</v>
+        <v>235038.9133214953</v>
       </c>
       <c r="G6" t="n">
-        <v>235650.8411267232</v>
+        <v>235038.9133214952</v>
       </c>
       <c r="H6" t="n">
-        <v>235650.8411267232</v>
+        <v>235038.9133214952</v>
       </c>
       <c r="I6" t="n">
-        <v>127327.7197751403</v>
+        <v>127156.2975487051</v>
       </c>
       <c r="J6" t="n">
-        <v>278040.9069433643</v>
+        <v>277859.6570825379</v>
       </c>
       <c r="K6" t="n">
-        <v>278040.9069433646</v>
+        <v>277859.6570825379</v>
       </c>
       <c r="L6" t="n">
-        <v>278040.9069433644</v>
+        <v>277859.6570825379</v>
       </c>
       <c r="M6" t="n">
-        <v>235650.8411267232</v>
+        <v>235038.9133214954</v>
       </c>
       <c r="N6" t="n">
-        <v>235650.8411267234</v>
+        <v>235038.9133214953</v>
       </c>
       <c r="O6" t="n">
-        <v>235650.8411267233</v>
+        <v>235038.9133214954</v>
       </c>
       <c r="P6" t="n">
-        <v>235650.8411267233</v>
+        <v>235038.9133214954</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>12.725494085322</v>
       </c>
       <c r="E4" t="n">
-        <v>570.3967927572199</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="F4" t="n">
-        <v>570.3967927572198</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="G4" t="n">
-        <v>570.3967927572198</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="H4" t="n">
-        <v>570.3967927572198</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="I4" t="n">
         <v>1140.79358551444</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.6712986718979</v>
+        <v>557.6712986718977</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>570.3967927572199</v>
+        <v>570.3967927572206</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>557.6712986718979</v>
+        <v>557.6712986718977</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.3056338715548</v>
+        <v>397.8225127665252</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27429,7 +27429,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>153.6398043180083</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27444,7 +27444,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>372.8325849309517</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27472,13 +27472,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>106.1337256635322</v>
       </c>
       <c r="H3" t="n">
         <v>74.68894815008308</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>122.3727551387782</v>
       </c>
       <c r="T3" t="n">
-        <v>164.005358492729</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>195.2370178028226</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>207.5891075273216</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -27545,22 +27545,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>141.2777299340675</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>143.0271813538348</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>141.198271442799</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>17.34899338683707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>188.0624288939541</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1532461230966</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>269.8589097551961</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>252.1109365370324</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27636,7 +27636,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>124.2282516531378</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>24.88749049201128</v>
       </c>
       <c r="S5" t="n">
-        <v>152.1229254230379</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27700,7 +27700,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>116.0625836194125</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -27709,10 +27709,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>106.1337256635322</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>76.20582704505347</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9523785855941</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>120.8558762438078</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>162.4884795977586</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>196.753896697793</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -27763,7 +27763,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>164.7955806699258</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>157.294451564319</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>141.3512878811884</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>141.2777299340675</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>109.9364853884268</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>188.0624288939541</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27836,7 +27836,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>269.2884828577825</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27861,19 +27861,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>387.3490744442693</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>396.3056338715548</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>124.2282516531378</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>24.88749049201128</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>162.6709322748852</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.5528770112297</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>137.9390729451571</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -27949,7 +27949,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>74.68894815008308</v>
+        <v>76.20582704505347</v>
       </c>
       <c r="I9" t="n">
         <v>36.16788736288552</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>10.9523785855941</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>120.8558762438078</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
@@ -28013,7 +28013,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>155.7775726693487</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28031,10 +28031,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>119.0379870239709</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>17.34899338683707</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>109.9364853884268</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28067,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>271.3757886501664</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>267.7716039628122</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.5309038044951</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.1554464862011</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="M2" t="n">
         <v>12.21133270813727</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>12.725494085322</v>
-      </c>
       <c r="N2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>12.725494085322</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>12.21133270813727</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8.754568697984791</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="M4" t="n">
-        <v>12.725494085322</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>12.21133270813727</v>
       </c>
       <c r="O5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>12.725494085322</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="P6" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="M6" t="n">
-        <v>12.21133270813727</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="M7" t="n">
-        <v>12.725494085322</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="N7" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>12.725494085322</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="M8" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="O8" t="n">
         <v>12.21133270813727</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="N9" t="n">
-        <v>12.21133270813727</v>
-      </c>
       <c r="O9" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>8.754568697984791</v>
       </c>
       <c r="L10" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>12.725494085322</v>
@@ -35345,7 +35345,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="O10" t="n">
-        <v>8.754568697984791</v>
+        <v>12.725494085322</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.81806162812629</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K11" t="n">
         <v>60.01782406991182</v>
       </c>
       <c r="L11" t="n">
-        <v>570.3967927572199</v>
+        <v>98.68584740045068</v>
       </c>
       <c r="M11" t="n">
-        <v>570.3967927572199</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="N11" t="n">
         <v>135.7425989888282</v>
       </c>
       <c r="O11" t="n">
-        <v>570.3967927572199</v>
+        <v>119.9084362792679</v>
       </c>
       <c r="P11" t="n">
-        <v>243.1995960203857</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.90147009355468</v>
+        <v>359.112855523006</v>
       </c>
       <c r="R11" t="n">
         <v>62.67090689551534</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K12" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L12" t="n">
         <v>95.40614654032397</v>
       </c>
       <c r="M12" t="n">
-        <v>570.3967927572199</v>
+        <v>124.0435278559235</v>
       </c>
       <c r="N12" t="n">
-        <v>570.3967927572199</v>
+        <v>136.786812344562</v>
       </c>
       <c r="O12" t="n">
-        <v>570.3967927572199</v>
+        <v>300.9229725824849</v>
       </c>
       <c r="P12" t="n">
-        <v>356.2052444044161</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R12" t="n">
         <v>29.35644064150409</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>198.0657503556578</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K14" t="n">
-        <v>60.01782406991182</v>
+        <v>565.6846676809288</v>
       </c>
       <c r="L14" t="n">
-        <v>570.3967927572198</v>
+        <v>98.68584740045068</v>
       </c>
       <c r="M14" t="n">
-        <v>570.3967927572198</v>
+        <v>130.6000849486573</v>
       </c>
       <c r="N14" t="n">
-        <v>570.3967927572198</v>
+        <v>135.7425989888282</v>
       </c>
       <c r="O14" t="n">
-        <v>119.4224124618157</v>
+        <v>447.9205928017805</v>
       </c>
       <c r="P14" t="n">
-        <v>79.27209381986674</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="Q14" t="n">
         <v>27.90147009355468</v>
       </c>
       <c r="R14" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K15" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L15" t="n">
-        <v>404.9395876886787</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="M15" t="n">
-        <v>570.3967927572198</v>
+        <v>124.0435278559235</v>
       </c>
       <c r="N15" t="n">
-        <v>570.3967927572198</v>
+        <v>136.786812344562</v>
       </c>
       <c r="O15" t="n">
-        <v>570.3967927572198</v>
+        <v>183.0093358750177</v>
       </c>
       <c r="P15" t="n">
-        <v>76.02824389756506</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="Q15" t="n">
         <v>18.04763764972861</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.81806162812629</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K17" t="n">
-        <v>60.01782406991182</v>
+        <v>565.6846676809288</v>
       </c>
       <c r="L17" t="n">
-        <v>570.3967927572198</v>
+        <v>98.68584740045068</v>
       </c>
       <c r="M17" t="n">
-        <v>570.3967927572198</v>
+        <v>130.6000849486573</v>
       </c>
       <c r="N17" t="n">
-        <v>570.3967927572198</v>
+        <v>135.7425989888282</v>
       </c>
       <c r="O17" t="n">
         <v>119.4224124618157</v>
       </c>
       <c r="P17" t="n">
-        <v>259.5197825473982</v>
+        <v>567.6835876677333</v>
       </c>
       <c r="Q17" t="n">
-        <v>27.90147009355468</v>
+        <v>359.112855523006</v>
       </c>
       <c r="R17" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K18" t="n">
         <v>460.9007581999721</v>
       </c>
       <c r="L18" t="n">
-        <v>570.3967927572198</v>
+        <v>95.40614654032397</v>
       </c>
       <c r="M18" t="n">
-        <v>570.3967927572198</v>
+        <v>124.0435278559235</v>
       </c>
       <c r="N18" t="n">
         <v>136.786812344562</v>
       </c>
       <c r="O18" t="n">
-        <v>110.5444553989648</v>
+        <v>300.9229725824854</v>
       </c>
       <c r="P18" t="n">
-        <v>76.02824389756506</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="Q18" t="n">
-        <v>333.4869806124778</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>17.81806162812629</v>
       </c>
       <c r="K20" t="n">
-        <v>302.9364196929588</v>
+        <v>60.01782406991182</v>
       </c>
       <c r="L20" t="n">
-        <v>570.3967927572198</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="M20" t="n">
-        <v>570.3967927572198</v>
+        <v>130.6000849486573</v>
       </c>
       <c r="N20" t="n">
-        <v>570.3967927572198</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="O20" t="n">
         <v>119.4224124618157</v>
       </c>
       <c r="P20" t="n">
-        <v>79.27209381986674</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="Q20" t="n">
-        <v>27.90147009355468</v>
+        <v>219.492074587811</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K21" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L21" t="n">
-        <v>570.3967927572198</v>
+        <v>95.40614654032397</v>
       </c>
       <c r="M21" t="n">
-        <v>570.3967927572198</v>
+        <v>124.0435278559235</v>
       </c>
       <c r="N21" t="n">
-        <v>570.3967927572198</v>
+        <v>136.786812344562</v>
       </c>
       <c r="O21" t="n">
-        <v>404.9395876886787</v>
+        <v>300.9229725824854</v>
       </c>
       <c r="P21" t="n">
-        <v>76.02824389756506</v>
+        <v>570.3967927572197</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>281.6087812965613</v>
+        <v>17.81806162812629</v>
       </c>
       <c r="K23" t="n">
         <v>565.6846676809288</v>
       </c>
       <c r="L23" t="n">
-        <v>303.4106884718757</v>
+        <v>750.2373420991534</v>
       </c>
       <c r="M23" t="n">
         <v>831.841197197476</v>
@@ -36378,10 +36378,10 @@
         <v>581.2780785673797</v>
       </c>
       <c r="Q23" t="n">
-        <v>359.112855523006</v>
+        <v>238.7478284596772</v>
       </c>
       <c r="R23" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K24" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L24" t="n">
         <v>95.40614654032397</v>
       </c>
       <c r="M24" t="n">
-        <v>850.5434273059235</v>
+        <v>124.0435278559235</v>
       </c>
       <c r="N24" t="n">
-        <v>884.5609163205056</v>
+        <v>136.786812344562</v>
       </c>
       <c r="O24" t="n">
-        <v>285.6194757935849</v>
+        <v>298.489602363838</v>
       </c>
       <c r="P24" t="n">
-        <v>76.02824389756506</v>
+        <v>572.830162975867</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>17.81806162812629</v>
       </c>
       <c r="K26" t="n">
-        <v>332.2609187579828</v>
+        <v>565.6846676809288</v>
       </c>
       <c r="L26" t="n">
         <v>750.2373420991534</v>
       </c>
       <c r="M26" t="n">
-        <v>831.841197197476</v>
+        <v>661.0883551700442</v>
       </c>
       <c r="N26" t="n">
         <v>818.0038010715234</v>
@@ -36618,7 +36618,7 @@
         <v>359.112855523006</v>
       </c>
       <c r="R26" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K27" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L27" t="n">
-        <v>673.9170852137203</v>
+        <v>283.3512935051968</v>
       </c>
       <c r="M27" t="n">
         <v>124.0435278559235</v>
       </c>
       <c r="N27" t="n">
-        <v>884.5609163205056</v>
+        <v>136.786812344562</v>
       </c>
       <c r="O27" t="n">
-        <v>433.6084365701883</v>
+        <v>110.5444553989648</v>
       </c>
       <c r="P27" t="n">
-        <v>76.02824389756506</v>
+        <v>572.830162975867</v>
       </c>
       <c r="Q27" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>281.6087812965613</v>
+        <v>17.81806162812629</v>
       </c>
       <c r="K29" t="n">
         <v>565.6846676809288</v>
       </c>
       <c r="L29" t="n">
-        <v>584.2342589372234</v>
+        <v>750.2373420991534</v>
       </c>
       <c r="M29" t="n">
-        <v>831.841197197476</v>
+        <v>661.0883551700442</v>
       </c>
       <c r="N29" t="n">
         <v>818.0038010715234</v>
@@ -36852,10 +36852,10 @@
         <v>581.2780785673797</v>
       </c>
       <c r="Q29" t="n">
-        <v>27.90147009355468</v>
+        <v>359.112855523006</v>
       </c>
       <c r="R29" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>136.786812344562</v>
       </c>
       <c r="O30" t="n">
-        <v>684.58062146783</v>
+        <v>724.9696734706628</v>
       </c>
       <c r="P30" t="n">
-        <v>572.830162975867</v>
+        <v>532.4411109730343</v>
       </c>
       <c r="Q30" t="n">
         <v>18.04763764972861</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>17.81806162812629</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K32" t="n">
         <v>565.6846676809288</v>
@@ -37077,7 +37077,7 @@
         <v>750.2373420991534</v>
       </c>
       <c r="M32" t="n">
-        <v>831.841197197476</v>
+        <v>728.5090209310603</v>
       </c>
       <c r="N32" t="n">
         <v>818.0038010715234</v>
@@ -37089,7 +37089,7 @@
         <v>581.2780785673797</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.3600134955753</v>
+        <v>27.90147009355468</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K33" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L33" t="n">
-        <v>673.9170852137203</v>
+        <v>95.40614654032397</v>
       </c>
       <c r="M33" t="n">
-        <v>850.5434273059235</v>
+        <v>124.0435278559235</v>
       </c>
       <c r="N33" t="n">
         <v>136.786812344562</v>
       </c>
       <c r="O33" t="n">
-        <v>110.5444553989648</v>
+        <v>298.4896023638375</v>
       </c>
       <c r="P33" t="n">
-        <v>420.3664295947323</v>
+        <v>572.830162975867</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>17.81806162812629</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K35" t="n">
         <v>565.6846676809288</v>
@@ -37314,22 +37314,22 @@
         <v>98.68584740045068</v>
       </c>
       <c r="M35" t="n">
-        <v>570.3967927572198</v>
+        <v>130.6000849486573</v>
       </c>
       <c r="N35" t="n">
-        <v>570.3967927572198</v>
+        <v>135.7425989888282</v>
       </c>
       <c r="O35" t="n">
-        <v>265.7142029350994</v>
+        <v>119.4224124618157</v>
       </c>
       <c r="P35" t="n">
-        <v>79.27209381986674</v>
+        <v>567.6835876677337</v>
       </c>
       <c r="Q35" t="n">
-        <v>27.90147009355468</v>
+        <v>359.112855523006</v>
       </c>
       <c r="R35" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K36" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L36" t="n">
+        <v>95.40614654032397</v>
+      </c>
+      <c r="M36" t="n">
+        <v>124.0435278559235</v>
+      </c>
+      <c r="N36" t="n">
+        <v>136.786812344562</v>
+      </c>
+      <c r="O36" t="n">
+        <v>300.9229725824854</v>
+      </c>
+      <c r="P36" t="n">
         <v>570.3967927572198</v>
       </c>
-      <c r="M36" t="n">
-        <v>570.3967927572198</v>
-      </c>
-      <c r="N36" t="n">
-        <v>570.3967927572198</v>
-      </c>
-      <c r="O36" t="n">
-        <v>404.9395876886787</v>
-      </c>
-      <c r="P36" t="n">
-        <v>76.02824389756506</v>
-      </c>
       <c r="Q36" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>17.81806162812629</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K38" t="n">
-        <v>60.01782406991182</v>
+        <v>565.6846676809288</v>
       </c>
       <c r="L38" t="n">
-        <v>570.3967927572198</v>
+        <v>98.68584740045068</v>
       </c>
       <c r="M38" t="n">
-        <v>570.3967927572198</v>
+        <v>130.6000849486573</v>
       </c>
       <c r="N38" t="n">
-        <v>299.6701011893472</v>
+        <v>135.7425989888282</v>
       </c>
       <c r="O38" t="n">
-        <v>570.3967927572198</v>
+        <v>119.4224124618157</v>
       </c>
       <c r="P38" t="n">
-        <v>79.27209381986674</v>
+        <v>567.6835876677337</v>
       </c>
       <c r="Q38" t="n">
-        <v>27.90147009355468</v>
+        <v>359.112855523006</v>
       </c>
       <c r="R38" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.9007581999721</v>
+        <v>371.2478076949343</v>
       </c>
       <c r="L39" t="n">
         <v>570.3967927572198</v>
@@ -37636,16 +37636,16 @@
         <v>136.786812344562</v>
       </c>
       <c r="O39" t="n">
-        <v>377.9685144033557</v>
+        <v>110.5444553989648</v>
       </c>
       <c r="P39" t="n">
         <v>570.3967927572198</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>17.81806162812629</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K41" t="n">
-        <v>60.01782406991182</v>
+        <v>565.6846676809288</v>
       </c>
       <c r="L41" t="n">
+        <v>98.68584740045068</v>
+      </c>
+      <c r="M41" t="n">
+        <v>130.6000849486573</v>
+      </c>
+      <c r="N41" t="n">
+        <v>135.7425989888282</v>
+      </c>
+      <c r="O41" t="n">
+        <v>447.9205928017809</v>
+      </c>
+      <c r="P41" t="n">
         <v>570.3967927572198</v>
-      </c>
-      <c r="M41" t="n">
-        <v>570.3967927572198</v>
-      </c>
-      <c r="N41" t="n">
-        <v>299.6701011893472</v>
-      </c>
-      <c r="O41" t="n">
-        <v>570.3967927572198</v>
-      </c>
-      <c r="P41" t="n">
-        <v>79.27209381986674</v>
       </c>
       <c r="Q41" t="n">
         <v>27.90147009355468</v>
       </c>
       <c r="R41" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K42" t="n">
         <v>460.9007581999721</v>
@@ -37870,16 +37870,16 @@
         <v>124.0435278559235</v>
       </c>
       <c r="N42" t="n">
-        <v>136.786812344562</v>
+        <v>356.5217701695864</v>
       </c>
       <c r="O42" t="n">
-        <v>570.3967927572198</v>
+        <v>110.5444553989648</v>
       </c>
       <c r="P42" t="n">
         <v>570.3967927572198</v>
       </c>
       <c r="Q42" t="n">
-        <v>300.6100055127603</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>17.81806162812629</v>
+        <v>281.6087812965613</v>
       </c>
       <c r="K44" t="n">
-        <v>60.01782406991182</v>
+        <v>565.6846676809288</v>
       </c>
       <c r="L44" t="n">
-        <v>299.6701011893472</v>
+        <v>570.3967927572198</v>
       </c>
       <c r="M44" t="n">
-        <v>570.3967927572198</v>
+        <v>130.6000849486573</v>
       </c>
       <c r="N44" t="n">
-        <v>570.3967927572198</v>
+        <v>483.6545329093775</v>
       </c>
       <c r="O44" t="n">
-        <v>570.3967927572198</v>
+        <v>119.4224124618157</v>
       </c>
       <c r="P44" t="n">
         <v>79.27209381986674</v>
@@ -38040,7 +38040,7 @@
         <v>27.90147009355468</v>
       </c>
       <c r="R44" t="n">
-        <v>62.67090689551534</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.9591785283376</v>
       </c>
       <c r="K45" t="n">
-        <v>48.33498846034944</v>
+        <v>460.9007581999721</v>
       </c>
       <c r="L45" t="n">
-        <v>95.40614654032397</v>
+        <v>285.7846637238445</v>
       </c>
       <c r="M45" t="n">
-        <v>385.5616850459199</v>
+        <v>124.0435278559235</v>
       </c>
       <c r="N45" t="n">
-        <v>570.3967927572198</v>
+        <v>136.786812344562</v>
       </c>
       <c r="O45" t="n">
-        <v>570.3967927572198</v>
+        <v>110.5444553989648</v>
       </c>
       <c r="P45" t="n">
         <v>570.3967927572198</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.04763764972861</v>
+        <v>345.7682065176532</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.35644064150409</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
